--- a/Analysis/2kr_analysis/boss_arrival_time_20-25/throughput/hard_game_mode/2kr_hard_minion_throughput.xlsx
+++ b/Analysis/2kr_analysis/boss_arrival_time_20-25/throughput/hard_game_mode/2kr_hard_minion_throughput.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="84">
   <si>
     <t xml:space="preserve">factor</t>
   </si>
@@ -235,13 +235,54 @@
     <t xml:space="preserve">var</t>
   </si>
   <si>
-    <t xml:space="preserve">err</t>
+    <t xml:space="preserve">Error Variance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qi CI (95%)</t>
   </si>
   <si>
     <t xml:space="preserve">SST</t>
   </si>
   <si>
     <t xml:space="preserve">Total var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student’s T quantile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predicted response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residuals</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">α=0.025, n=16)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">i</t>
@@ -258,12 +299,6 @@
   <si>
     <t xml:space="preserve">Residuals (unsorted)</t>
   </si>
-  <si>
-    <t xml:space="preserve">Predicted response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residuals</t>
-  </si>
 </sst>
 </file>
 
@@ -274,7 +309,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -305,6 +340,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -312,12 +352,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -528,7 +569,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -741,6 +782,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -753,7 +806,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -826,7 +887,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FF7E0021"/>
       <rgbColor rgb="FF006100"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -847,7 +908,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF9C0006"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
@@ -861,13 +922,13 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -879,7 +940,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -974,7 +1035,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$69:$D$228</c:f>
+              <c:f>Sheet1!$D$76:$D$235</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="160"/>
@@ -1463,7 +1524,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$69:$E$228</c:f>
+              <c:f>Sheet1!$E$76:$E$235</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="160"/>
@@ -1952,11 +2013,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="36859008"/>
-        <c:axId val="83902599"/>
+        <c:axId val="96296319"/>
+        <c:axId val="30369778"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="36859008"/>
+        <c:axId val="96296319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2012,12 +2073,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83902599"/>
+        <c:crossAx val="30369778"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83902599"/>
+        <c:axId val="30369778"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2082,7 +2143,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36859008"/>
+        <c:crossAx val="96296319"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2109,7 +2170,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2150,6 +2211,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>series1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>series1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -2679,10 +2751,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$69:$Y$228</c:f>
+              <c:f>Sheet1!$Y$69:$Y$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="160"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>-0.00248</c:v>
                 </c:pt>
@@ -2778,401 +2850,1025 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-0.00328000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-7.99999999999967E-005</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.000560000000000005</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.00367999999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.00711999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.000719999999999998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.000719999999999998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-0.000640000000000002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.00023999999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.00168</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.000879999999999992</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.00152000000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.00192000000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.00144000000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.00168</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.00239999999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.000240000000000004</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.0024</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.00232000000000002</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-0.00199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-0.00480000000000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.00023999999999999</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.00023999999999999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.00023999999999999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.000320000000000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-0.002</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-0.002</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-0.00319999999999999</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-0.00320000000000001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.00023999999999999</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.00023999999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.000320000000000001</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.000719999999999998</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-0.00327999999999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-0.00336</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-0.01408</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-0.01192</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.00192000000000001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.00192000000000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.00136</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-0.000640000000000002</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-0.00512</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-0.00552000000000001</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-0.01952</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-0.01752</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.000240000000000018</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-0.000320000000000001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-0.01224</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.00167999999999999</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-0.00559999999999999</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-0.00600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.00343999999999998</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.00343999999999998</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.00343999999999998</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.00352</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.000399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.000399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-0.0104</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-0.0112</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.00343999999999998</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.00343999999999998</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.00352</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.000719999999999998</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.00472000000000002</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.00504</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.00952</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.01088</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-0.00128</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-0.00128</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-0.000640000000000002</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.000560000000000005</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.00568</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.00608</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.01168</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.01088</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-0.00135999999999999</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-0.00112</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.004</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.00576</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.00520000000000001</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.00527999999999999</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.00480000000000001</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.0052</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-0.00136000000000001</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>-0.00136000000000001</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>-0.00136000000000001</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-0.00128</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.00560000000000001</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.00560000000000001</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.00800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.00879999999999999</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-0.00136000000000001</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-0.00136000000000001</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-0.00128</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-0.000480000000000008</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.00112000000000001</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.00104</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.00352000000000001</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.00448000000000001</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.00192000000000001</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.00192000000000001</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.00216</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.00176000000000001</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>-0.00272</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>-0.00232</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.00248</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.00527999999999999</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.00224000000000001</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.00208</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.0012</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.00296</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>7.99999999999829E-005</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.00200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.00559999999999999</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.00144</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.00144</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.00144</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.00152000000000001</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.000399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.000399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.00600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.00599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.00144</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.00144</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.00152000000000001</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.00232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="33651487"/>
-        <c:axId val="66573794"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$69:$X$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.09888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.06768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06544</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09592</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09552</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.07392</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.06832</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.06696</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.06672</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0616</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.05984</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10112</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0956</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0924</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.06816</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.06816</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.06816</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.06808</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0884</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0828</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.06816</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.06816</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.06808</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.06728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$101:$Y$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-7.99999999999967E-005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.000560000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.00367999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.00711999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.000719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.000640000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.00023999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00168</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.000879999999999992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.00152000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.00192000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00144000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.00168</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.00239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.000240000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.0024</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.00232000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.00199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.00480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.00023999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.00023999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.00023999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.000320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.00319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.00320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.00023999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.00023999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.000320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.000719999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$69:$X$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.09888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.06768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06544</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09592</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09552</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.07392</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.06832</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.06696</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.06672</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0616</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.05984</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10112</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0956</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0924</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.06816</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.06816</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.06816</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.06808</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0884</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0828</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.06816</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.06816</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.06808</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.06728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$133:$Y$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-0.00327999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.00336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.01408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.01192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00192000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00192000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.000640000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.00512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.00552000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.01952</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.01752</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.000240000000000018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.000320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.01224</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.00167999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.00559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.00600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.00343999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.00343999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.00343999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.00352</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.000399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.000399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.0104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.0112</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.00343999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.00343999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.00352</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.000719999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$69:$X$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.09888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.06768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06544</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09592</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09552</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.07392</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.06832</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.06696</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.06672</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0616</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.05984</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10112</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0956</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0924</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.06816</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.06816</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.06816</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.06808</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0884</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0828</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.06816</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.06816</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.06808</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.06728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$165:$Y$196</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.00472000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01088</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.00128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.00128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.000640000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.000560000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00568</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00608</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.01088</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.00135999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.00112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.00576</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.00520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.00527999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.00480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0052</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.00136000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.00136000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.00136000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.00128</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.00560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.00560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.00800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.00879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.00136000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.00136000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.00128</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.000480000000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$69:$X$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.09888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.06768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06544</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09592</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09552</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.07392</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.06832</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.06696</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.06672</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0616</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.05984</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10112</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0956</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0924</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.06816</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.06816</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.06816</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.06808</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0884</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0828</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.06816</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.06816</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.06808</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.06728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$197:$Y$228</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.00112000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00352000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00448000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00192000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00192000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00176000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.00272</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.00232</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.00248</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.00527999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00224000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.00208</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.00296</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.99999999999829E-005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.00200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.00559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.00144</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.00144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.00144</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.00152000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.000399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.000399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.00600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.00599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.00144</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.00144</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.00152000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.00232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="7153647"/>
+        <c:axId val="43565085"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="33651487"/>
+        <c:axId val="7153647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3228,12 +3924,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66573794"/>
+        <c:crossAx val="43565085"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66573794"/>
+        <c:axId val="43565085"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3298,7 +3994,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33651487"/>
+        <c:crossAx val="7153647"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3336,9 +4032,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>523440</xdr:colOff>
+      <xdr:colOff>523080</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3346,8 +4042,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11076480" y="11810880"/>
-        <a:ext cx="7628040" cy="4548960"/>
+        <a:off x="11079000" y="11838960"/>
+        <a:ext cx="7633440" cy="4548600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3360,7 +4056,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
+      <xdr:colOff>18360</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>43200</xdr:rowOff>
     </xdr:from>
@@ -3368,7 +4064,7 @@
       <xdr:col>38</xdr:col>
       <xdr:colOff>492480</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3376,8 +4072,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="28698840" y="11774520"/>
-        <a:ext cx="7048080" cy="4132440"/>
+        <a:off x="28714320" y="11802600"/>
+        <a:ext cx="7052760" cy="4132080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3395,13 +4091,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BP228"/>
+  <dimension ref="A1:BP235"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J74" activeCellId="0" sqref="J74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG21" activeCellId="0" sqref="AG21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.57"/>
@@ -11824,7 +12520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="51"/>
       <c r="C57" s="52" t="str">
         <f aca="false">C19</f>
@@ -11956,7 +12652,11 @@
       <c r="AN57" s="51"/>
       <c r="AO57" s="51"/>
       <c r="AP57" s="51"/>
-      <c r="AQ57" s="51" t="s">
+      <c r="AQ57" s="53" t="n">
+        <f aca="false">AQ55/((2^2)*(5-1))</f>
+        <v>1.7272578125E-006</v>
+      </c>
+      <c r="AR57" s="46" t="s">
         <v>71</v>
       </c>
       <c r="AX57" s="15" t="s">
@@ -11996,14 +12696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="54" t="n">
-        <f aca="false">SUM(C55:AF55,AQ55)</f>
-        <v>0.033067834125</v>
-      </c>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AX58" s="15" t="s">
         <v>22</v>
       </c>
@@ -12041,14 +12734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="55" t="n">
-        <f aca="false">SUM(C56:AF56,AQ56)</f>
-        <v>1</v>
-      </c>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AX59" s="15" t="s">
         <v>22</v>
       </c>
@@ -12087,6 +12773,133 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="55" t="n">
+        <f aca="false">B54-($B$69*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.633259181199633</v>
+      </c>
+      <c r="C60" s="55" t="n">
+        <f aca="false">C54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.00255211377341165</v>
+      </c>
+      <c r="D60" s="55" t="n">
+        <f aca="false">D54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-0.00207788622658835</v>
+      </c>
+      <c r="E60" s="55" t="n">
+        <f aca="false">E54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-0.0124828862265883</v>
+      </c>
+      <c r="F60" s="55" t="n">
+        <f aca="false">F54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-0.00424788622658834</v>
+      </c>
+      <c r="G60" s="55" t="n">
+        <f aca="false">G54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-0.000807886226588341</v>
+      </c>
+      <c r="H60" s="55" t="n">
+        <f aca="false">H54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.000927113773411659</v>
+      </c>
+      <c r="I60" s="55" t="n">
+        <f aca="false">I54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-0.00119788622658834</v>
+      </c>
+      <c r="J60" s="55" t="n">
+        <f aca="false">J54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.00138711377341166</v>
+      </c>
+      <c r="K60" s="55" t="n">
+        <f aca="false">K54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.00019711377341166</v>
+      </c>
+      <c r="L60" s="55" t="n">
+        <f aca="false">L54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.00125211377341166</v>
+      </c>
+      <c r="M60" s="55" t="n">
+        <f aca="false">M54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-0.00155288622658834</v>
+      </c>
+      <c r="N60" s="55" t="n">
+        <f aca="false">N54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-9.28862265883415E-005</v>
+      </c>
+      <c r="O60" s="55" t="n">
+        <f aca="false">O54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.00321211377341166</v>
+      </c>
+      <c r="P60" s="55" t="n">
+        <f aca="false">P54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.000552113773411657</v>
+      </c>
+      <c r="Q60" s="55" t="n">
+        <f aca="false">Q54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-0.000742886226588343</v>
+      </c>
+      <c r="R60" s="55" t="n">
+        <f aca="false">R54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-0.00021288622658834</v>
+      </c>
+      <c r="S60" s="55" t="n">
+        <f aca="false">S54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.000492113773411656</v>
+      </c>
+      <c r="T60" s="55" t="n">
+        <f aca="false">T54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-9.78862265883421E-005</v>
+      </c>
+      <c r="U60" s="55" t="n">
+        <f aca="false">U54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-0.000482886226588343</v>
+      </c>
+      <c r="V60" s="55" t="n">
+        <f aca="false">V54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-5.2886226588344E-005</v>
+      </c>
+      <c r="W60" s="55" t="n">
+        <f aca="false">W54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.000142113773411661</v>
+      </c>
+      <c r="X60" s="55" t="n">
+        <f aca="false">X54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.000937113773411658</v>
+      </c>
+      <c r="Y60" s="55" t="n">
+        <f aca="false">Y54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-2.88622658833992E-006</v>
+      </c>
+      <c r="Z60" s="55" t="n">
+        <f aca="false">Z54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-7.78862265883403E-005</v>
+      </c>
+      <c r="AA60" s="55" t="n">
+        <f aca="false">AA54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.000517113773411658</v>
+      </c>
+      <c r="AB60" s="55" t="n">
+        <f aca="false">AB54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>1.21137734116577E-005</v>
+      </c>
+      <c r="AC60" s="55" t="n">
+        <f aca="false">AC54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.000102113773411658</v>
+      </c>
+      <c r="AD60" s="55" t="n">
+        <f aca="false">AD54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-0.000122886226588341</v>
+      </c>
+      <c r="AE60" s="55" t="n">
+        <f aca="false">AE54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>1.21137734116577E-005</v>
+      </c>
+      <c r="AF60" s="55" t="n">
+        <f aca="false">AF54-($B$76*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>9.71137734116586E-005</v>
+      </c>
       <c r="AX60" s="15" t="s">
         <v>22</v>
       </c>
@@ -12125,6 +12938,131 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="54"/>
+      <c r="B61" s="55" t="n">
+        <f aca="false">B54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.63326</v>
+      </c>
+      <c r="C61" s="55" t="n">
+        <f aca="false">C54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.00255249999999999</v>
+      </c>
+      <c r="D61" s="55" t="n">
+        <f aca="false">D54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-0.0020775</v>
+      </c>
+      <c r="E61" s="55" t="n">
+        <f aca="false">E54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-0.0124825</v>
+      </c>
+      <c r="F61" s="55" t="n">
+        <f aca="false">F54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-0.0042475</v>
+      </c>
+      <c r="G61" s="55" t="n">
+        <f aca="false">G54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-0.000807499999999999</v>
+      </c>
+      <c r="H61" s="55" t="n">
+        <f aca="false">H54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.000927500000000001</v>
+      </c>
+      <c r="I61" s="55" t="n">
+        <f aca="false">I54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-0.0011975</v>
+      </c>
+      <c r="J61" s="55" t="n">
+        <f aca="false">J54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.0013875</v>
+      </c>
+      <c r="K61" s="55" t="n">
+        <f aca="false">K54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.000197500000000002</v>
+      </c>
+      <c r="L61" s="55" t="n">
+        <f aca="false">L54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.0012525</v>
+      </c>
+      <c r="M61" s="55" t="n">
+        <f aca="false">M54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-0.0015525</v>
+      </c>
+      <c r="N61" s="55" t="n">
+        <f aca="false">N54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-9.24999999999997E-005</v>
+      </c>
+      <c r="O61" s="55" t="n">
+        <f aca="false">O54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.0032125</v>
+      </c>
+      <c r="P61" s="55" t="n">
+        <f aca="false">P54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.000552499999999998</v>
+      </c>
+      <c r="Q61" s="55" t="n">
+        <f aca="false">Q54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-0.000742500000000001</v>
+      </c>
+      <c r="R61" s="55" t="n">
+        <f aca="false">R54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-0.000212499999999998</v>
+      </c>
+      <c r="S61" s="55" t="n">
+        <f aca="false">S54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.000492499999999998</v>
+      </c>
+      <c r="T61" s="55" t="n">
+        <f aca="false">T54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-9.75000000000004E-005</v>
+      </c>
+      <c r="U61" s="55" t="n">
+        <f aca="false">U54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-0.000482500000000001</v>
+      </c>
+      <c r="V61" s="55" t="n">
+        <f aca="false">V54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-5.25000000000022E-005</v>
+      </c>
+      <c r="W61" s="55" t="n">
+        <f aca="false">W54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.000142500000000002</v>
+      </c>
+      <c r="X61" s="55" t="n">
+        <f aca="false">X54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.0009375</v>
+      </c>
+      <c r="Y61" s="55" t="n">
+        <f aca="false">Y54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-2.49999999999816E-006</v>
+      </c>
+      <c r="Z61" s="55" t="n">
+        <f aca="false">Z54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-7.74999999999986E-005</v>
+      </c>
+      <c r="AA61" s="55" t="n">
+        <f aca="false">AA54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.0005175</v>
+      </c>
+      <c r="AB61" s="55" t="n">
+        <f aca="false">AB54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>1.24999999999995E-005</v>
+      </c>
+      <c r="AC61" s="55" t="n">
+        <f aca="false">AC54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>0.0001025</v>
+      </c>
+      <c r="AD61" s="55" t="n">
+        <f aca="false">AD54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>-0.000122499999999999</v>
+      </c>
+      <c r="AE61" s="55" t="n">
+        <f aca="false">AE54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>1.24999999999995E-005</v>
+      </c>
+      <c r="AF61" s="55" t="n">
+        <f aca="false">AF54+($TE$63*SQRT(($AQ$57^2)/((2^2)*5)))</f>
+        <v>9.75000000000004E-005</v>
+      </c>
       <c r="AX61" s="15" t="s">
         <v>22</v>
       </c>
@@ -12238,7 +13176,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="57" t="n">
+        <f aca="false">SUM(C55:AF55,AQ55)</f>
+        <v>0.033067834125</v>
+      </c>
       <c r="AX64" s="15" t="s">
         <v>22</v>
       </c>
@@ -12276,7 +13221,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="58" t="n">
+        <f aca="false">SUM(C56:AF56,AQ56)</f>
+        <v>1</v>
+      </c>
       <c r="AX65" s="15" t="s">
         <v>22</v>
       </c>
@@ -12391,26 +13343,15 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="56" t="s">
+      <c r="A68" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="D68" s="56" t="s">
+      <c r="B68" s="59"/>
+      <c r="X68" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="E68" s="56" t="s">
+      <c r="Y68" s="59" t="s">
         <v>77</v>
-      </c>
-      <c r="F68" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="X68" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y68" s="56" t="s">
-        <v>80</v>
       </c>
       <c r="AX68" s="15" t="s">
         <v>22</v>
@@ -12449,28 +13390,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="C69" s="58" t="n">
-        <f aca="false">(B69-0.5)/$B$228</f>
-        <v>0.003125</v>
-      </c>
-      <c r="D69" s="58" t="n">
-        <f aca="false">_xlfn.NORM.S.INV(C69)</f>
-        <v>-2.73436878653318</v>
-      </c>
-      <c r="E69" s="16" t="n">
-        <v>-0.01952</v>
-      </c>
-      <c r="F69" s="16" t="n">
-        <v>-0.00248</v>
+    <row r="69" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="61" t="n">
+        <v>2.12</v>
       </c>
       <c r="X69" s="16" t="n">
         <v>0.09888</v>
       </c>
-      <c r="Y69" s="16" t="n">
+      <c r="Y69" s="12" t="n">
         <v>-0.00248</v>
       </c>
       <c r="AX69" s="15" t="s">
@@ -12511,23 +13441,6 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="C70" s="58" t="n">
-        <f aca="false">(B70-0.5)/$B$228</f>
-        <v>0.009375</v>
-      </c>
-      <c r="D70" s="58" t="n">
-        <f aca="false">_xlfn.NORM.S.INV(C70)</f>
-        <v>-2.35046442310908</v>
-      </c>
-      <c r="E70" s="16" t="n">
-        <v>-0.01752</v>
-      </c>
-      <c r="F70" s="16" t="n">
-        <v>-0.00216000000000001</v>
-      </c>
       <c r="X70" s="16" t="n">
         <v>0.09856</v>
       </c>
@@ -12572,23 +13485,6 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="57" t="n">
-        <v>3</v>
-      </c>
-      <c r="C71" s="58" t="n">
-        <f aca="false">(B71-0.5)/$B$228</f>
-        <v>0.015625</v>
-      </c>
-      <c r="D71" s="58" t="n">
-        <f aca="false">_xlfn.NORM.S.INV(C71)</f>
-        <v>-2.15387469406146</v>
-      </c>
-      <c r="E71" s="16" t="n">
-        <v>-0.01408</v>
-      </c>
-      <c r="F71" s="16" t="n">
-        <v>0.00472</v>
-      </c>
       <c r="X71" s="16" t="n">
         <v>0.08928</v>
       </c>
@@ -12633,23 +13529,6 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="57" t="n">
-        <v>4</v>
-      </c>
-      <c r="C72" s="58" t="n">
-        <f aca="false">(B72-0.5)/$B$228</f>
-        <v>0.021875</v>
-      </c>
-      <c r="D72" s="58" t="n">
-        <f aca="false">_xlfn.NORM.S.INV(C72)</f>
-        <v>-2.01647815742854</v>
-      </c>
-      <c r="E72" s="16" t="n">
-        <v>-0.01224</v>
-      </c>
-      <c r="F72" s="16" t="n">
-        <v>0.00368000000000002</v>
-      </c>
       <c r="X72" s="16" t="n">
         <v>0.08272</v>
       </c>
@@ -12694,23 +13573,6 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="57" t="n">
-        <v>5</v>
-      </c>
-      <c r="C73" s="58" t="n">
-        <f aca="false">(B73-0.5)/$B$228</f>
-        <v>0.028125</v>
-      </c>
-      <c r="D73" s="58" t="n">
-        <f aca="false">_xlfn.NORM.S.INV(C73)</f>
-        <v>-1.90909374120198</v>
-      </c>
-      <c r="E73" s="16" t="n">
-        <v>-0.01192</v>
-      </c>
-      <c r="F73" s="16" t="n">
-        <v>-0.00328000000000001</v>
-      </c>
       <c r="X73" s="16" t="n">
         <v>0.06768</v>
       </c>
@@ -12755,23 +13617,6 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="57" t="n">
-        <v>6</v>
-      </c>
-      <c r="C74" s="58" t="n">
-        <f aca="false">(B74-0.5)/$B$228</f>
-        <v>0.034375</v>
-      </c>
-      <c r="D74" s="58" t="n">
-        <f aca="false">_xlfn.NORM.S.INV(C74)</f>
-        <v>-1.82005913441812</v>
-      </c>
-      <c r="E74" s="16" t="n">
-        <v>-0.0112</v>
-      </c>
-      <c r="F74" s="16" t="n">
-        <v>-0.00328000000000001</v>
-      </c>
       <c r="X74" s="16" t="n">
         <v>0.06768</v>
       </c>
@@ -12816,22 +13661,20 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="57" t="n">
-        <v>7</v>
-      </c>
-      <c r="C75" s="58" t="n">
-        <f aca="false">(B75-0.5)/$B$228</f>
-        <v>0.040625</v>
-      </c>
-      <c r="D75" s="58" t="n">
-        <f aca="false">_xlfn.NORM.S.INV(C75)</f>
-        <v>-1.74347888187728</v>
-      </c>
-      <c r="E75" s="16" t="n">
-        <v>-0.0104</v>
-      </c>
-      <c r="F75" s="16" t="n">
-        <v>-0.00224000000000001</v>
+      <c r="B75" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="F75" s="59" t="s">
+        <v>83</v>
       </c>
       <c r="X75" s="16" t="n">
         <v>0.06664</v>
@@ -12877,22 +13720,22 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="57" t="n">
-        <v>8</v>
-      </c>
-      <c r="C76" s="58" t="n">
-        <f aca="false">(B76-0.5)/$B$228</f>
-        <v>0.046875</v>
-      </c>
-      <c r="D76" s="58" t="n">
+      <c r="B76" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" s="63" t="n">
+        <f aca="false">(B76-0.5)/$B$235</f>
+        <v>0.003125</v>
+      </c>
+      <c r="D76" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C76)</f>
-        <v>-1.67593972277344</v>
+        <v>-2.73436878653318</v>
       </c>
       <c r="E76" s="16" t="n">
-        <v>-0.01</v>
+        <v>-0.01952</v>
       </c>
       <c r="F76" s="16" t="n">
-        <v>-0.00144</v>
+        <v>-0.00248</v>
       </c>
       <c r="X76" s="16" t="n">
         <v>0.06544</v>
@@ -12938,22 +13781,22 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="57" t="n">
-        <v>9</v>
-      </c>
-      <c r="C77" s="58" t="n">
-        <f aca="false">(B77-0.5)/$B$228</f>
-        <v>0.053125</v>
-      </c>
-      <c r="D77" s="58" t="n">
+      <c r="B77" s="62" t="n">
+        <v>2</v>
+      </c>
+      <c r="C77" s="63" t="n">
+        <f aca="false">(B77-0.5)/$B$235</f>
+        <v>0.009375</v>
+      </c>
+      <c r="D77" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C77)</f>
-        <v>-1.61528033615581</v>
+        <v>-2.35046442310908</v>
       </c>
       <c r="E77" s="16" t="n">
-        <v>-0.00711999999999999</v>
+        <v>-0.01752</v>
       </c>
       <c r="F77" s="16" t="n">
-        <v>0.000479999999999994</v>
+        <v>-0.00216000000000001</v>
       </c>
       <c r="X77" s="16" t="n">
         <v>0.09592</v>
@@ -12999,22 +13842,22 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="57" t="n">
-        <v>10</v>
-      </c>
-      <c r="C78" s="58" t="n">
-        <f aca="false">(B78-0.5)/$B$228</f>
-        <v>0.059375</v>
-      </c>
-      <c r="D78" s="58" t="n">
+      <c r="B78" s="62" t="n">
+        <v>3</v>
+      </c>
+      <c r="C78" s="63" t="n">
+        <f aca="false">(B78-0.5)/$B$235</f>
+        <v>0.015625</v>
+      </c>
+      <c r="D78" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C78)</f>
-        <v>-1.56004181507316</v>
+        <v>-2.15387469406146</v>
       </c>
       <c r="E78" s="16" t="n">
-        <v>-0.00600000000000001</v>
+        <v>-0.01408</v>
       </c>
       <c r="F78" s="16" t="n">
-        <v>0.000879999999999992</v>
+        <v>0.00472</v>
       </c>
       <c r="X78" s="16" t="n">
         <v>0.09552</v>
@@ -13060,22 +13903,22 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="57" t="n">
-        <v>11</v>
-      </c>
-      <c r="C79" s="58" t="n">
-        <f aca="false">(B79-0.5)/$B$228</f>
-        <v>0.065625</v>
-      </c>
-      <c r="D79" s="58" t="n">
+      <c r="B79" s="62" t="n">
+        <v>4</v>
+      </c>
+      <c r="C79" s="63" t="n">
+        <f aca="false">(B79-0.5)/$B$235</f>
+        <v>0.021875</v>
+      </c>
+      <c r="D79" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C79)</f>
-        <v>-1.50919091978405</v>
+        <v>-2.01647815742854</v>
       </c>
       <c r="E79" s="16" t="n">
-        <v>-0.00559999999999999</v>
+        <v>-0.01224</v>
       </c>
       <c r="F79" s="16" t="n">
-        <v>0.00688</v>
+        <v>0.00368000000000002</v>
       </c>
       <c r="X79" s="16" t="n">
         <v>0.07392</v>
@@ -13121,22 +13964,22 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="57" t="n">
-        <v>12</v>
-      </c>
-      <c r="C80" s="58" t="n">
-        <f aca="false">(B80-0.5)/$B$228</f>
-        <v>0.071875</v>
-      </c>
-      <c r="D80" s="58" t="n">
+      <c r="B80" s="62" t="n">
+        <v>5</v>
+      </c>
+      <c r="C80" s="63" t="n">
+        <f aca="false">(B80-0.5)/$B$235</f>
+        <v>0.028125</v>
+      </c>
+      <c r="D80" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C80)</f>
-        <v>-1.46196792364549</v>
+        <v>-1.90909374120198</v>
       </c>
       <c r="E80" s="16" t="n">
-        <v>-0.00552000000000001</v>
+        <v>-0.01192</v>
       </c>
       <c r="F80" s="16" t="n">
-        <v>0.00327999999999999</v>
+        <v>-0.00328000000000001</v>
       </c>
       <c r="X80" s="16" t="n">
         <v>0.06832</v>
@@ -13182,22 +14025,22 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="57" t="n">
-        <v>13</v>
-      </c>
-      <c r="C81" s="58" t="n">
-        <f aca="false">(B81-0.5)/$B$228</f>
-        <v>0.078125</v>
-      </c>
-      <c r="D81" s="58" t="n">
+      <c r="B81" s="62" t="n">
+        <v>6</v>
+      </c>
+      <c r="C81" s="63" t="n">
+        <f aca="false">(B81-0.5)/$B$235</f>
+        <v>0.034375</v>
+      </c>
+      <c r="D81" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C81)</f>
-        <v>-1.41779713799627</v>
+        <v>-1.82005913441812</v>
       </c>
       <c r="E81" s="16" t="n">
-        <v>-0.00512</v>
+        <v>-0.0112</v>
       </c>
       <c r="F81" s="16" t="n">
-        <v>-0.00255999999999999</v>
+        <v>-0.00328000000000001</v>
       </c>
       <c r="X81" s="16" t="n">
         <v>0.06696</v>
@@ -13243,22 +14086,22 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="57" t="n">
-        <v>14</v>
-      </c>
-      <c r="C82" s="58" t="n">
-        <f aca="false">(B82-0.5)/$B$228</f>
-        <v>0.084375</v>
-      </c>
-      <c r="D82" s="58" t="n">
+      <c r="B82" s="62" t="n">
+        <v>7</v>
+      </c>
+      <c r="C82" s="63" t="n">
+        <f aca="false">(B82-0.5)/$B$235</f>
+        <v>0.040625</v>
+      </c>
+      <c r="D82" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C82)</f>
-        <v>-1.37623141165149</v>
+        <v>-1.74347888187728</v>
       </c>
       <c r="E82" s="16" t="n">
-        <v>-0.00480000000000001</v>
+        <v>-0.0104</v>
       </c>
       <c r="F82" s="16" t="n">
-        <v>-0.00232</v>
+        <v>-0.00224000000000001</v>
       </c>
       <c r="X82" s="16" t="n">
         <v>0.06672</v>
@@ -13304,22 +14147,22 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="57" t="n">
-        <v>15</v>
-      </c>
-      <c r="C83" s="58" t="n">
-        <f aca="false">(B83-0.5)/$B$228</f>
-        <v>0.090625</v>
-      </c>
-      <c r="D83" s="58" t="n">
+      <c r="B83" s="62" t="n">
+        <v>8</v>
+      </c>
+      <c r="C83" s="63" t="n">
+        <f aca="false">(B83-0.5)/$B$235</f>
+        <v>0.046875</v>
+      </c>
+      <c r="D83" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C83)</f>
-        <v>-1.3369161761535</v>
+        <v>-1.67593972277344</v>
       </c>
       <c r="E83" s="16" t="n">
-        <v>-0.0048</v>
+        <v>-0.01</v>
       </c>
       <c r="F83" s="16" t="n">
-        <v>0.00239999999999999</v>
+        <v>-0.00144</v>
       </c>
       <c r="X83" s="16" t="n">
         <v>0.0616</v>
@@ -13365,22 +14208,22 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="57" t="n">
-        <v>16</v>
-      </c>
-      <c r="C84" s="58" t="n">
-        <f aca="false">(B84-0.5)/$B$228</f>
-        <v>0.096875</v>
-      </c>
-      <c r="D84" s="58" t="n">
+      <c r="B84" s="62" t="n">
+        <v>9</v>
+      </c>
+      <c r="C84" s="63" t="n">
+        <f aca="false">(B84-0.5)/$B$235</f>
+        <v>0.053125</v>
+      </c>
+      <c r="D84" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C84)</f>
-        <v>-1.29956529745035</v>
+        <v>-1.61528033615581</v>
       </c>
       <c r="E84" s="16" t="n">
-        <v>-0.00472000000000002</v>
+        <v>-0.00711999999999999</v>
       </c>
       <c r="F84" s="16" t="n">
-        <v>0.00376</v>
+        <v>0.000479999999999994</v>
       </c>
       <c r="X84" s="16" t="n">
         <v>0.05984</v>
@@ -13426,22 +14269,22 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="57" t="n">
-        <v>17</v>
-      </c>
-      <c r="C85" s="58" t="n">
-        <f aca="false">(B85-0.5)/$B$228</f>
-        <v>0.103125</v>
-      </c>
-      <c r="D85" s="58" t="n">
+      <c r="B85" s="62" t="n">
+        <v>10</v>
+      </c>
+      <c r="C85" s="63" t="n">
+        <f aca="false">(B85-0.5)/$B$235</f>
+        <v>0.059375</v>
+      </c>
+      <c r="D85" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C85)</f>
-        <v>-1.26394435523673</v>
+        <v>-1.56004181507316</v>
       </c>
       <c r="E85" s="16" t="n">
-        <v>-0.0044</v>
+        <v>-0.00600000000000001</v>
       </c>
       <c r="F85" s="16" t="n">
-        <v>-0.0048</v>
+        <v>0.000879999999999992</v>
       </c>
       <c r="X85" s="16" t="n">
         <v>0.1012</v>
@@ -13487,22 +14330,22 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="57" t="n">
-        <v>18</v>
-      </c>
-      <c r="C86" s="58" t="n">
-        <f aca="false">(B86-0.5)/$B$228</f>
-        <v>0.109375</v>
-      </c>
-      <c r="D86" s="58" t="n">
+      <c r="B86" s="62" t="n">
+        <v>11</v>
+      </c>
+      <c r="C86" s="63" t="n">
+        <f aca="false">(B86-0.5)/$B$235</f>
+        <v>0.065625</v>
+      </c>
+      <c r="D86" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C86)</f>
-        <v>-1.22985875921659</v>
+        <v>-1.50919091978405</v>
       </c>
       <c r="E86" s="16" t="n">
-        <v>-0.0044</v>
+        <v>-0.00559999999999999</v>
       </c>
       <c r="F86" s="16" t="n">
-        <v>-0.00472000000000002</v>
+        <v>0.00688</v>
       </c>
       <c r="X86" s="16" t="n">
         <v>0.10112</v>
@@ -13548,22 +14391,22 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="57" t="n">
-        <v>19</v>
-      </c>
-      <c r="C87" s="58" t="n">
-        <f aca="false">(B87-0.5)/$B$228</f>
-        <v>0.115625</v>
-      </c>
-      <c r="D87" s="58" t="n">
+      <c r="B87" s="62" t="n">
+        <v>12</v>
+      </c>
+      <c r="C87" s="63" t="n">
+        <f aca="false">(B87-0.5)/$B$235</f>
+        <v>0.071875</v>
+      </c>
+      <c r="D87" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C87)</f>
-        <v>-1.19714510997237</v>
+        <v>-1.46196792364549</v>
       </c>
       <c r="E87" s="16" t="n">
-        <v>-0.00408</v>
+        <v>-0.00552000000000001</v>
       </c>
       <c r="F87" s="16" t="n">
-        <v>0.000800000000000009</v>
+        <v>0.00327999999999999</v>
       </c>
       <c r="X87" s="16" t="n">
         <v>0.0956</v>
@@ -13609,22 +14452,22 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="57" t="n">
-        <v>20</v>
-      </c>
-      <c r="C88" s="58" t="n">
-        <f aca="false">(B88-0.5)/$B$228</f>
-        <v>0.121875</v>
-      </c>
-      <c r="D88" s="58" t="n">
+      <c r="B88" s="62" t="n">
+        <v>13</v>
+      </c>
+      <c r="C88" s="63" t="n">
+        <f aca="false">(B88-0.5)/$B$235</f>
+        <v>0.078125</v>
+      </c>
+      <c r="D88" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C88)</f>
-        <v>-1.16566479312306</v>
+        <v>-1.41779713799627</v>
       </c>
       <c r="E88" s="16" t="n">
-        <v>-0.00408</v>
+        <v>-0.00512</v>
       </c>
       <c r="F88" s="16" t="n">
-        <v>0</v>
+        <v>-0.00255999999999999</v>
       </c>
       <c r="X88" s="16" t="n">
         <v>0.0924</v>
@@ -13670,22 +14513,22 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="57" t="n">
-        <v>21</v>
-      </c>
-      <c r="C89" s="58" t="n">
-        <f aca="false">(B89-0.5)/$B$228</f>
-        <v>0.128125</v>
-      </c>
-      <c r="D89" s="58" t="n">
+      <c r="B89" s="62" t="n">
+        <v>14</v>
+      </c>
+      <c r="C89" s="63" t="n">
+        <f aca="false">(B89-0.5)/$B$235</f>
+        <v>0.084375</v>
+      </c>
+      <c r="D89" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C89)</f>
-        <v>-1.13529914581985</v>
+        <v>-1.37623141165149</v>
       </c>
       <c r="E89" s="16" t="n">
-        <v>-0.00376000000000001</v>
+        <v>-0.00480000000000001</v>
       </c>
       <c r="F89" s="16" t="n">
-        <v>-0.00376000000000001</v>
+        <v>-0.00232</v>
       </c>
       <c r="X89" s="16" t="n">
         <v>0.06816</v>
@@ -13731,22 +14574,22 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="57" t="n">
-        <v>22</v>
-      </c>
-      <c r="C90" s="58" t="n">
-        <f aca="false">(B90-0.5)/$B$228</f>
-        <v>0.134375</v>
-      </c>
-      <c r="D90" s="58" t="n">
+      <c r="B90" s="62" t="n">
+        <v>15</v>
+      </c>
+      <c r="C90" s="63" t="n">
+        <f aca="false">(B90-0.5)/$B$235</f>
+        <v>0.090625</v>
+      </c>
+      <c r="D90" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C90)</f>
-        <v>-1.10594575260395</v>
+        <v>-1.3369161761535</v>
       </c>
       <c r="E90" s="16" t="n">
-        <v>-0.00376000000000001</v>
+        <v>-0.0048</v>
       </c>
       <c r="F90" s="16" t="n">
-        <v>-0.00376000000000001</v>
+        <v>0.00239999999999999</v>
       </c>
       <c r="X90" s="16" t="n">
         <v>0.06816</v>
@@ -13792,22 +14635,22 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="57" t="n">
-        <v>23</v>
-      </c>
-      <c r="C91" s="58" t="n">
-        <f aca="false">(B91-0.5)/$B$228</f>
-        <v>0.140625</v>
-      </c>
-      <c r="D91" s="58" t="n">
+      <c r="B91" s="62" t="n">
+        <v>16</v>
+      </c>
+      <c r="C91" s="63" t="n">
+        <f aca="false">(B91-0.5)/$B$235</f>
+        <v>0.096875</v>
+      </c>
+      <c r="D91" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C91)</f>
-        <v>-1.07751556704028</v>
+        <v>-1.29956529745035</v>
       </c>
       <c r="E91" s="16" t="n">
-        <v>-0.00376000000000001</v>
+        <v>-0.00472000000000002</v>
       </c>
       <c r="F91" s="16" t="n">
-        <v>-0.00376000000000001</v>
+        <v>0.00376</v>
       </c>
       <c r="X91" s="16" t="n">
         <v>0.06816</v>
@@ -13853,22 +14696,22 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="57" t="n">
-        <v>24</v>
-      </c>
-      <c r="C92" s="58" t="n">
-        <f aca="false">(B92-0.5)/$B$228</f>
-        <v>0.146875</v>
-      </c>
-      <c r="D92" s="58" t="n">
+      <c r="B92" s="62" t="n">
+        <v>17</v>
+      </c>
+      <c r="C92" s="63" t="n">
+        <f aca="false">(B92-0.5)/$B$235</f>
+        <v>0.103125</v>
+      </c>
+      <c r="D92" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C92)</f>
-        <v>-1.04993064688034</v>
+        <v>-1.26394435523673</v>
       </c>
       <c r="E92" s="16" t="n">
-        <v>-0.00376000000000001</v>
+        <v>-0.0044</v>
       </c>
       <c r="F92" s="16" t="n">
-        <v>-0.00408</v>
+        <v>-0.0048</v>
       </c>
       <c r="X92" s="16" t="n">
         <v>0.06808</v>
@@ -13914,22 +14757,22 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="57" t="n">
-        <v>25</v>
-      </c>
-      <c r="C93" s="58" t="n">
-        <f aca="false">(B93-0.5)/$B$228</f>
-        <v>0.153125</v>
-      </c>
-      <c r="D93" s="58" t="n">
+      <c r="B93" s="62" t="n">
+        <v>18</v>
+      </c>
+      <c r="C93" s="63" t="n">
+        <f aca="false">(B93-0.5)/$B$235</f>
+        <v>0.109375</v>
+      </c>
+      <c r="D93" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C93)</f>
-        <v>-1.02312235168363</v>
+        <v>-1.22985875921659</v>
       </c>
       <c r="E93" s="16" t="n">
-        <v>-0.00376000000000001</v>
+        <v>-0.0044</v>
       </c>
       <c r="F93" s="16" t="n">
-        <v>-0.0044</v>
+        <v>-0.00472000000000002</v>
       </c>
       <c r="X93" s="16" t="n">
         <v>0.1008</v>
@@ -13975,22 +14818,22 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="57" t="n">
-        <v>26</v>
-      </c>
-      <c r="C94" s="58" t="n">
-        <f aca="false">(B94-0.5)/$B$228</f>
-        <v>0.159375</v>
-      </c>
-      <c r="D94" s="58" t="n">
+      <c r="B94" s="62" t="n">
+        <v>19</v>
+      </c>
+      <c r="C94" s="63" t="n">
+        <f aca="false">(B94-0.5)/$B$235</f>
+        <v>0.115625</v>
+      </c>
+      <c r="D94" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C94)</f>
-        <v>-0.997029893615007</v>
+        <v>-1.19714510997237</v>
       </c>
       <c r="E94" s="16" t="n">
-        <v>-0.00367999999999999</v>
+        <v>-0.00408</v>
       </c>
       <c r="F94" s="16" t="n">
-        <v>-0.0044</v>
+        <v>0.000800000000000009</v>
       </c>
       <c r="X94" s="16" t="n">
         <v>0.1008</v>
@@ -14036,22 +14879,22 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="57" t="n">
-        <v>27</v>
-      </c>
-      <c r="C95" s="58" t="n">
-        <f aca="false">(B95-0.5)/$B$228</f>
-        <v>0.165625</v>
-      </c>
-      <c r="D95" s="58" t="n">
+      <c r="B95" s="62" t="n">
+        <v>20</v>
+      </c>
+      <c r="C95" s="63" t="n">
+        <f aca="false">(B95-0.5)/$B$235</f>
+        <v>0.121875</v>
+      </c>
+      <c r="D95" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C95)</f>
-        <v>-0.971599161193188</v>
+        <v>-1.16566479312306</v>
       </c>
       <c r="E95" s="16" t="n">
-        <v>-0.00336</v>
+        <v>-0.00408</v>
       </c>
       <c r="F95" s="16" t="n">
-        <v>-0.000399999999999998</v>
+        <v>0</v>
       </c>
       <c r="X95" s="16" t="n">
         <v>0.0884</v>
@@ -14097,22 +14940,22 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="57" t="n">
-        <v>28</v>
-      </c>
-      <c r="C96" s="58" t="n">
-        <f aca="false">(B96-0.5)/$B$228</f>
-        <v>0.171875</v>
-      </c>
-      <c r="D96" s="58" t="n">
+      <c r="B96" s="62" t="n">
+        <v>21</v>
+      </c>
+      <c r="C96" s="63" t="n">
+        <f aca="false">(B96-0.5)/$B$235</f>
+        <v>0.128125</v>
+      </c>
+      <c r="D96" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C96)</f>
-        <v>-0.946781756301045</v>
+        <v>-1.13529914581985</v>
       </c>
       <c r="E96" s="16" t="n">
-        <v>-0.00328000000000001</v>
+        <v>-0.00376000000000001</v>
       </c>
       <c r="F96" s="16" t="n">
-        <v>-0.000400000000000011</v>
+        <v>-0.00376000000000001</v>
       </c>
       <c r="X96" s="16" t="n">
         <v>0.0828</v>
@@ -14158,19 +15001,19 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="57" t="n">
-        <v>29</v>
-      </c>
-      <c r="C97" s="58" t="n">
-        <f aca="false">(B97-0.5)/$B$228</f>
-        <v>0.178125</v>
-      </c>
-      <c r="D97" s="58" t="n">
+      <c r="B97" s="62" t="n">
+        <v>22</v>
+      </c>
+      <c r="C97" s="63" t="n">
+        <f aca="false">(B97-0.5)/$B$235</f>
+        <v>0.134375</v>
+      </c>
+      <c r="D97" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C97)</f>
-        <v>-0.922534199498215</v>
+        <v>-1.10594575260395</v>
       </c>
       <c r="E97" s="16" t="n">
-        <v>-0.00328000000000001</v>
+        <v>-0.00376000000000001</v>
       </c>
       <c r="F97" s="16" t="n">
         <v>-0.00376000000000001</v>
@@ -14219,19 +15062,19 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="57" t="n">
-        <v>30</v>
-      </c>
-      <c r="C98" s="58" t="n">
-        <f aca="false">(B98-0.5)/$B$228</f>
-        <v>0.184375</v>
-      </c>
-      <c r="D98" s="58" t="n">
+      <c r="B98" s="62" t="n">
+        <v>23</v>
+      </c>
+      <c r="C98" s="63" t="n">
+        <f aca="false">(B98-0.5)/$B$235</f>
+        <v>0.140625</v>
+      </c>
+      <c r="D98" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C98)</f>
-        <v>-0.898817269385916</v>
+        <v>-1.07751556704028</v>
       </c>
       <c r="E98" s="16" t="n">
-        <v>-0.00328000000000001</v>
+        <v>-0.00376000000000001</v>
       </c>
       <c r="F98" s="16" t="n">
         <v>-0.00376000000000001</v>
@@ -14280,19 +15123,19 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="57" t="n">
-        <v>31</v>
-      </c>
-      <c r="C99" s="58" t="n">
-        <f aca="false">(B99-0.5)/$B$228</f>
-        <v>0.190625</v>
-      </c>
-      <c r="D99" s="58" t="n">
+      <c r="B99" s="62" t="n">
+        <v>24</v>
+      </c>
+      <c r="C99" s="63" t="n">
+        <f aca="false">(B99-0.5)/$B$235</f>
+        <v>0.146875</v>
+      </c>
+      <c r="D99" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C99)</f>
-        <v>-0.875595449658795</v>
+        <v>-1.04993064688034</v>
       </c>
       <c r="E99" s="16" t="n">
-        <v>-0.00327999999999999</v>
+        <v>-0.00376000000000001</v>
       </c>
       <c r="F99" s="16" t="n">
         <v>-0.00408</v>
@@ -14341,27 +15184,27 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="57" t="n">
-        <v>32</v>
-      </c>
-      <c r="C100" s="58" t="n">
-        <f aca="false">(B100-0.5)/$B$228</f>
-        <v>0.196875</v>
-      </c>
-      <c r="D100" s="58" t="n">
+      <c r="B100" s="62" t="n">
+        <v>25</v>
+      </c>
+      <c r="C100" s="63" t="n">
+        <f aca="false">(B100-0.5)/$B$235</f>
+        <v>0.153125</v>
+      </c>
+      <c r="D100" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C100)</f>
-        <v>-0.852836463351083</v>
+        <v>-1.02312235168363</v>
       </c>
       <c r="E100" s="16" t="n">
-        <v>-0.00320000000000001</v>
+        <v>-0.00376000000000001</v>
       </c>
       <c r="F100" s="16" t="n">
-        <v>-0.00328000000000001</v>
+        <v>-0.0044</v>
       </c>
       <c r="X100" s="16" t="n">
         <v>0.06728</v>
       </c>
-      <c r="Y100" s="16" t="n">
+      <c r="Y100" s="39" t="n">
         <v>-0.00328000000000001</v>
       </c>
       <c r="AX100" s="15" t="s">
@@ -14402,29 +15245,30 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="57" t="n">
-        <v>33</v>
-      </c>
-      <c r="C101" s="58" t="n">
-        <f aca="false">(B101-0.5)/$B$228</f>
-        <v>0.203125</v>
-      </c>
-      <c r="D101" s="58" t="n">
+      <c r="B101" s="62" t="n">
+        <v>26</v>
+      </c>
+      <c r="C101" s="63" t="n">
+        <f aca="false">(B101-0.5)/$B$235</f>
+        <v>0.159375</v>
+      </c>
+      <c r="D101" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C101)</f>
-        <v>-0.830510878205399</v>
+        <v>-0.997029893615007</v>
       </c>
       <c r="E101" s="16" t="n">
-        <v>-0.00319999999999999</v>
+        <v>-0.00367999999999999</v>
       </c>
       <c r="F101" s="16" t="n">
-        <v>-7.99999999999967E-005</v>
+        <v>-0.0044</v>
       </c>
       <c r="X101" s="16" t="n">
         <v>0.09888</v>
       </c>
-      <c r="Y101" s="16" t="n">
+      <c r="Y101" s="12" t="n">
         <v>-7.99999999999967E-005</v>
       </c>
+      <c r="Z101" s="40"/>
       <c r="AX101" s="15" t="s">
         <v>22</v>
       </c>
@@ -14463,22 +15307,22 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="57" t="n">
-        <v>34</v>
-      </c>
-      <c r="C102" s="58" t="n">
-        <f aca="false">(B102-0.5)/$B$228</f>
-        <v>0.209375</v>
-      </c>
-      <c r="D102" s="58" t="n">
+      <c r="B102" s="62" t="n">
+        <v>27</v>
+      </c>
+      <c r="C102" s="63" t="n">
+        <f aca="false">(B102-0.5)/$B$235</f>
+        <v>0.165625</v>
+      </c>
+      <c r="D102" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C102)</f>
-        <v>-0.808591770453963</v>
+        <v>-0.971599161193188</v>
       </c>
       <c r="E102" s="16" t="n">
-        <v>-0.00272</v>
+        <v>-0.00336</v>
       </c>
       <c r="F102" s="16" t="n">
-        <v>-0.000560000000000005</v>
+        <v>-0.000399999999999998</v>
       </c>
       <c r="X102" s="16" t="n">
         <v>0.09856</v>
@@ -14486,6 +15330,7 @@
       <c r="Y102" s="16" t="n">
         <v>-0.000560000000000005</v>
       </c>
+      <c r="Z102" s="40"/>
       <c r="AX102" s="15" t="s">
         <v>22</v>
       </c>
@@ -14524,22 +15369,22 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="57" t="n">
-        <v>35</v>
-      </c>
-      <c r="C103" s="58" t="n">
-        <f aca="false">(B103-0.5)/$B$228</f>
-        <v>0.215625</v>
-      </c>
-      <c r="D103" s="58" t="n">
+      <c r="B103" s="62" t="n">
+        <v>28</v>
+      </c>
+      <c r="C103" s="63" t="n">
+        <f aca="false">(B103-0.5)/$B$235</f>
+        <v>0.171875</v>
+      </c>
+      <c r="D103" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C103)</f>
-        <v>-0.787054436881757</v>
+        <v>-0.946781756301045</v>
       </c>
       <c r="E103" s="16" t="n">
-        <v>-0.00255999999999999</v>
+        <v>-0.00328000000000001</v>
       </c>
       <c r="F103" s="16" t="n">
-        <v>-0.00367999999999999</v>
+        <v>-0.000400000000000011</v>
       </c>
       <c r="X103" s="16" t="n">
         <v>0.08928</v>
@@ -14547,6 +15392,7 @@
       <c r="Y103" s="16" t="n">
         <v>-0.00367999999999999</v>
       </c>
+      <c r="Z103" s="40"/>
       <c r="AX103" s="15" t="s">
         <v>22</v>
       </c>
@@ -14585,22 +15431,22 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="57" t="n">
-        <v>36</v>
-      </c>
-      <c r="C104" s="58" t="n">
-        <f aca="false">(B104-0.5)/$B$228</f>
-        <v>0.221875</v>
-      </c>
-      <c r="D104" s="58" t="n">
+      <c r="B104" s="62" t="n">
+        <v>29</v>
+      </c>
+      <c r="C104" s="63" t="n">
+        <f aca="false">(B104-0.5)/$B$235</f>
+        <v>0.178125</v>
+      </c>
+      <c r="D104" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C104)</f>
-        <v>-0.765876147038185</v>
+        <v>-0.922534199498215</v>
       </c>
       <c r="E104" s="16" t="n">
-        <v>-0.00248</v>
+        <v>-0.00328000000000001</v>
       </c>
       <c r="F104" s="16" t="n">
-        <v>-0.00711999999999999</v>
+        <v>-0.00376000000000001</v>
       </c>
       <c r="X104" s="16" t="n">
         <v>0.08272</v>
@@ -14608,6 +15454,7 @@
       <c r="Y104" s="16" t="n">
         <v>-0.00711999999999999</v>
       </c>
+      <c r="Z104" s="40"/>
       <c r="AX104" s="15" t="s">
         <v>22</v>
       </c>
@@ -14646,22 +15493,22 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="57" t="n">
-        <v>37</v>
-      </c>
-      <c r="C105" s="58" t="n">
-        <f aca="false">(B105-0.5)/$B$228</f>
-        <v>0.228125</v>
-      </c>
-      <c r="D105" s="58" t="n">
+      <c r="B105" s="62" t="n">
+        <v>30</v>
+      </c>
+      <c r="C105" s="63" t="n">
+        <f aca="false">(B105-0.5)/$B$235</f>
+        <v>0.184375</v>
+      </c>
+      <c r="D105" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C105)</f>
-        <v>-0.74503592902231</v>
+        <v>-0.898817269385916</v>
       </c>
       <c r="E105" s="16" t="n">
-        <v>-0.0024</v>
+        <v>-0.00328000000000001</v>
       </c>
       <c r="F105" s="16" t="n">
-        <v>0.000719999999999998</v>
+        <v>-0.00376000000000001</v>
       </c>
       <c r="X105" s="16" t="n">
         <v>0.06768</v>
@@ -14669,6 +15516,7 @@
       <c r="Y105" s="16" t="n">
         <v>0.000719999999999998</v>
       </c>
+      <c r="Z105" s="40"/>
       <c r="AX105" s="15" t="s">
         <v>22</v>
       </c>
@@ -14707,22 +15555,22 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="57" t="n">
-        <v>38</v>
-      </c>
-      <c r="C106" s="58" t="n">
-        <f aca="false">(B106-0.5)/$B$228</f>
-        <v>0.234375</v>
-      </c>
-      <c r="D106" s="58" t="n">
+      <c r="B106" s="62" t="n">
+        <v>31</v>
+      </c>
+      <c r="C106" s="63" t="n">
+        <f aca="false">(B106-0.5)/$B$235</f>
+        <v>0.190625</v>
+      </c>
+      <c r="D106" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C106)</f>
-        <v>-0.724514383492365</v>
+        <v>-0.875595449658795</v>
       </c>
       <c r="E106" s="16" t="n">
-        <v>-0.00232000000000002</v>
+        <v>-0.00327999999999999</v>
       </c>
       <c r="F106" s="16" t="n">
-        <v>0.000719999999999998</v>
+        <v>-0.00408</v>
       </c>
       <c r="X106" s="16" t="n">
         <v>0.06768</v>
@@ -14730,6 +15578,7 @@
       <c r="Y106" s="16" t="n">
         <v>0.000719999999999998</v>
       </c>
+      <c r="Z106" s="40"/>
       <c r="AX106" s="15" t="s">
         <v>22</v>
       </c>
@@ -14768,22 +15617,22 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="57" t="n">
-        <v>39</v>
-      </c>
-      <c r="C107" s="58" t="n">
-        <f aca="false">(B107-0.5)/$B$228</f>
-        <v>0.240625</v>
-      </c>
-      <c r="D107" s="58" t="n">
+      <c r="B107" s="62" t="n">
+        <v>32</v>
+      </c>
+      <c r="C107" s="63" t="n">
+        <f aca="false">(B107-0.5)/$B$235</f>
+        <v>0.196875</v>
+      </c>
+      <c r="D107" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C107)</f>
-        <v>-0.704293521520969</v>
+        <v>-0.852836463351083</v>
       </c>
       <c r="E107" s="16" t="n">
-        <v>-0.00232</v>
+        <v>-0.00320000000000001</v>
       </c>
       <c r="F107" s="16" t="n">
-        <v>-0.000640000000000002</v>
+        <v>-0.00328000000000001</v>
       </c>
       <c r="X107" s="16" t="n">
         <v>0.06664</v>
@@ -14791,6 +15640,7 @@
       <c r="Y107" s="16" t="n">
         <v>-0.000640000000000002</v>
       </c>
+      <c r="Z107" s="40"/>
       <c r="AX107" s="15" t="s">
         <v>22</v>
       </c>
@@ -14829,22 +15679,22 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="57" t="n">
-        <v>40</v>
-      </c>
-      <c r="C108" s="58" t="n">
-        <f aca="false">(B108-0.5)/$B$228</f>
-        <v>0.246875</v>
-      </c>
-      <c r="D108" s="58" t="n">
+      <c r="B108" s="62" t="n">
+        <v>33</v>
+      </c>
+      <c r="C108" s="63" t="n">
+        <f aca="false">(B108-0.5)/$B$235</f>
+        <v>0.203125</v>
+      </c>
+      <c r="D108" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C108)</f>
-        <v>-0.684356622691522</v>
+        <v>-0.830510878205399</v>
       </c>
       <c r="E108" s="16" t="n">
-        <v>-0.00232</v>
+        <v>-0.00319999999999999</v>
       </c>
       <c r="F108" s="16" t="n">
-        <v>-0.00023999999999999</v>
+        <v>-7.99999999999967E-005</v>
       </c>
       <c r="X108" s="16" t="n">
         <v>0.06544</v>
@@ -14852,6 +15702,7 @@
       <c r="Y108" s="16" t="n">
         <v>-0.00023999999999999</v>
       </c>
+      <c r="Z108" s="40"/>
       <c r="AX108" s="15" t="s">
         <v>22</v>
       </c>
@@ -14890,22 +15741,22 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="57" t="n">
-        <v>41</v>
-      </c>
-      <c r="C109" s="58" t="n">
-        <f aca="false">(B109-0.5)/$B$228</f>
-        <v>0.253125</v>
-      </c>
-      <c r="D109" s="58" t="n">
+      <c r="B109" s="62" t="n">
+        <v>34</v>
+      </c>
+      <c r="C109" s="63" t="n">
+        <f aca="false">(B109-0.5)/$B$235</f>
+        <v>0.209375</v>
+      </c>
+      <c r="D109" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C109)</f>
-        <v>-0.664688110452435</v>
+        <v>-0.808591770453963</v>
       </c>
       <c r="E109" s="16" t="n">
-        <v>-0.00224000000000001</v>
+        <v>-0.00272</v>
       </c>
       <c r="F109" s="16" t="n">
-        <v>0.00168</v>
+        <v>-0.000560000000000005</v>
       </c>
       <c r="X109" s="16" t="n">
         <v>0.09592</v>
@@ -14913,6 +15764,7 @@
       <c r="Y109" s="16" t="n">
         <v>0.00168</v>
       </c>
+      <c r="Z109" s="40"/>
       <c r="AX109" s="15" t="s">
         <v>22</v>
       </c>
@@ -14951,22 +15803,22 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="57" t="n">
-        <v>42</v>
-      </c>
-      <c r="C110" s="58" t="n">
-        <f aca="false">(B110-0.5)/$B$228</f>
-        <v>0.259375</v>
-      </c>
-      <c r="D110" s="58" t="n">
+      <c r="B110" s="62" t="n">
+        <v>35</v>
+      </c>
+      <c r="C110" s="63" t="n">
+        <f aca="false">(B110-0.5)/$B$235</f>
+        <v>0.215625</v>
+      </c>
+      <c r="D110" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C110)</f>
-        <v>-0.645273442247319</v>
+        <v>-0.787054436881757</v>
       </c>
       <c r="E110" s="16" t="n">
-        <v>-0.00216000000000001</v>
+        <v>-0.00255999999999999</v>
       </c>
       <c r="F110" s="16" t="n">
-        <v>0.000879999999999992</v>
+        <v>-0.00367999999999999</v>
       </c>
       <c r="X110" s="16" t="n">
         <v>0.09552</v>
@@ -14974,6 +15826,7 @@
       <c r="Y110" s="16" t="n">
         <v>0.000879999999999992</v>
       </c>
+      <c r="Z110" s="40"/>
       <c r="AX110" s="15" t="s">
         <v>22</v>
       </c>
@@ -15012,22 +15865,22 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="57" t="n">
-        <v>43</v>
-      </c>
-      <c r="C111" s="58" t="n">
-        <f aca="false">(B111-0.5)/$B$228</f>
-        <v>0.265625</v>
-      </c>
-      <c r="D111" s="58" t="n">
+      <c r="B111" s="62" t="n">
+        <v>36</v>
+      </c>
+      <c r="C111" s="63" t="n">
+        <f aca="false">(B111-0.5)/$B$235</f>
+        <v>0.221875</v>
+      </c>
+      <c r="D111" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C111)</f>
-        <v>-0.626099012346421</v>
+        <v>-0.765876147038185</v>
       </c>
       <c r="E111" s="16" t="n">
-        <v>-0.002</v>
+        <v>-0.00248</v>
       </c>
       <c r="F111" s="16" t="n">
-        <v>-0.00152000000000001</v>
+        <v>-0.00711999999999999</v>
       </c>
       <c r="X111" s="16" t="n">
         <v>0.07392</v>
@@ -15035,6 +15888,7 @@
       <c r="Y111" s="16" t="n">
         <v>-0.00152000000000001</v>
       </c>
+      <c r="Z111" s="40"/>
       <c r="AX111" s="15" t="s">
         <v>22</v>
       </c>
@@ -15073,22 +15927,22 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="57" t="n">
-        <v>44</v>
-      </c>
-      <c r="C112" s="58" t="n">
-        <f aca="false">(B112-0.5)/$B$228</f>
-        <v>0.271875</v>
-      </c>
-      <c r="D112" s="58" t="n">
+      <c r="B112" s="62" t="n">
+        <v>37</v>
+      </c>
+      <c r="C112" s="63" t="n">
+        <f aca="false">(B112-0.5)/$B$235</f>
+        <v>0.228125</v>
+      </c>
+      <c r="D112" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C112)</f>
-        <v>-0.607152065636956</v>
+        <v>-0.74503592902231</v>
       </c>
       <c r="E112" s="16" t="n">
-        <v>-0.002</v>
+        <v>-0.0024</v>
       </c>
       <c r="F112" s="16" t="n">
-        <v>-0.00192000000000001</v>
+        <v>0.000719999999999998</v>
       </c>
       <c r="X112" s="16" t="n">
         <v>0.06832</v>
@@ -15096,6 +15950,7 @@
       <c r="Y112" s="16" t="n">
         <v>-0.00192000000000001</v>
       </c>
+      <c r="Z112" s="40"/>
       <c r="AX112" s="15" t="s">
         <v>22</v>
       </c>
@@ -15134,22 +15989,22 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="57" t="n">
-        <v>45</v>
-      </c>
-      <c r="C113" s="58" t="n">
-        <f aca="false">(B113-0.5)/$B$228</f>
-        <v>0.278125</v>
-      </c>
-      <c r="D113" s="58" t="n">
+      <c r="B113" s="62" t="n">
+        <v>38</v>
+      </c>
+      <c r="C113" s="63" t="n">
+        <f aca="false">(B113-0.5)/$B$235</f>
+        <v>0.234375</v>
+      </c>
+      <c r="D113" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C113)</f>
-        <v>-0.588420620902714</v>
+        <v>-0.724514383492365</v>
       </c>
       <c r="E113" s="16" t="n">
-        <v>-0.00199999999999999</v>
+        <v>-0.00232000000000002</v>
       </c>
       <c r="F113" s="16" t="n">
-        <v>0.00144000000000001</v>
+        <v>0.000719999999999998</v>
       </c>
       <c r="X113" s="16" t="n">
         <v>0.06696</v>
@@ -15157,6 +16012,7 @@
       <c r="Y113" s="16" t="n">
         <v>0.00144000000000001</v>
       </c>
+      <c r="Z113" s="40"/>
       <c r="AX113" s="15" t="s">
         <v>22</v>
       </c>
@@ -15195,22 +16051,22 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="57" t="n">
-        <v>46</v>
-      </c>
-      <c r="C114" s="58" t="n">
-        <f aca="false">(B114-0.5)/$B$228</f>
-        <v>0.284375</v>
-      </c>
-      <c r="D114" s="58" t="n">
+      <c r="B114" s="62" t="n">
+        <v>39</v>
+      </c>
+      <c r="C114" s="63" t="n">
+        <f aca="false">(B114-0.5)/$B$235</f>
+        <v>0.240625</v>
+      </c>
+      <c r="D114" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C114)</f>
-        <v>-0.569893402348136</v>
+        <v>-0.704293521520969</v>
       </c>
       <c r="E114" s="16" t="n">
-        <v>-0.00192000000000001</v>
+        <v>-0.00232</v>
       </c>
       <c r="F114" s="16" t="n">
-        <v>0.00168</v>
+        <v>-0.000640000000000002</v>
       </c>
       <c r="X114" s="16" t="n">
         <v>0.06672</v>
@@ -15218,6 +16074,7 @@
       <c r="Y114" s="16" t="n">
         <v>0.00168</v>
       </c>
+      <c r="Z114" s="40"/>
       <c r="AX114" s="15" t="s">
         <v>22</v>
       </c>
@@ -15256,22 +16113,22 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="57" t="n">
-        <v>47</v>
-      </c>
-      <c r="C115" s="58" t="n">
-        <f aca="false">(B115-0.5)/$B$228</f>
-        <v>0.290625</v>
-      </c>
-      <c r="D115" s="58" t="n">
+      <c r="B115" s="62" t="n">
+        <v>40</v>
+      </c>
+      <c r="C115" s="63" t="n">
+        <f aca="false">(B115-0.5)/$B$235</f>
+        <v>0.246875</v>
+      </c>
+      <c r="D115" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C115)</f>
-        <v>-0.551559778308309</v>
+        <v>-0.684356622691522</v>
       </c>
       <c r="E115" s="16" t="n">
-        <v>-0.00152000000000001</v>
+        <v>-0.00232</v>
       </c>
       <c r="F115" s="16" t="n">
-        <v>0.00239999999999999</v>
+        <v>-0.00023999999999999</v>
       </c>
       <c r="X115" s="16" t="n">
         <v>0.0616</v>
@@ -15279,6 +16136,7 @@
       <c r="Y115" s="16" t="n">
         <v>0.00239999999999999</v>
       </c>
+      <c r="Z115" s="40"/>
       <c r="AX115" s="15" t="s">
         <v>22</v>
       </c>
@@ -15317,22 +16175,22 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="57" t="n">
-        <v>48</v>
-      </c>
-      <c r="C116" s="58" t="n">
-        <f aca="false">(B116-0.5)/$B$228</f>
-        <v>0.296875</v>
-      </c>
-      <c r="D116" s="58" t="n">
+      <c r="B116" s="62" t="n">
+        <v>41</v>
+      </c>
+      <c r="C116" s="63" t="n">
+        <f aca="false">(B116-0.5)/$B$235</f>
+        <v>0.253125</v>
+      </c>
+      <c r="D116" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C116)</f>
-        <v>-0.53340970624128</v>
+        <v>-0.664688110452435</v>
       </c>
       <c r="E116" s="16" t="n">
-        <v>-0.00144</v>
+        <v>-0.00224000000000001</v>
       </c>
       <c r="F116" s="16" t="n">
-        <v>-0.000240000000000004</v>
+        <v>0.00168</v>
       </c>
       <c r="X116" s="16" t="n">
         <v>0.05984</v>
@@ -15340,6 +16198,7 @@
       <c r="Y116" s="16" t="n">
         <v>-0.000240000000000004</v>
       </c>
+      <c r="Z116" s="40"/>
       <c r="AX116" s="15" t="s">
         <v>22</v>
       </c>
@@ -15378,22 +16237,22 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="57" t="n">
-        <v>49</v>
-      </c>
-      <c r="C117" s="58" t="n">
-        <f aca="false">(B117-0.5)/$B$228</f>
-        <v>0.303125</v>
-      </c>
-      <c r="D117" s="58" t="n">
+      <c r="B117" s="62" t="n">
+        <v>42</v>
+      </c>
+      <c r="C117" s="63" t="n">
+        <f aca="false">(B117-0.5)/$B$235</f>
+        <v>0.259375</v>
+      </c>
+      <c r="D117" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C117)</f>
-        <v>-0.515433683228519</v>
+        <v>-0.645273442247319</v>
       </c>
       <c r="E117" s="16" t="n">
-        <v>-0.00136000000000001</v>
+        <v>-0.00216000000000001</v>
       </c>
       <c r="F117" s="16" t="n">
-        <v>-0.0024</v>
+        <v>0.000879999999999992</v>
       </c>
       <c r="X117" s="16" t="n">
         <v>0.1012</v>
@@ -15401,6 +16260,7 @@
       <c r="Y117" s="16" t="n">
         <v>-0.0024</v>
       </c>
+      <c r="Z117" s="40"/>
       <c r="AX117" s="15" t="s">
         <v>22</v>
       </c>
@@ -15439,22 +16299,22 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="57" t="n">
-        <v>50</v>
-      </c>
-      <c r="C118" s="58" t="n">
-        <f aca="false">(B118-0.5)/$B$228</f>
-        <v>0.309375</v>
-      </c>
-      <c r="D118" s="58" t="n">
+      <c r="B118" s="62" t="n">
+        <v>43</v>
+      </c>
+      <c r="C118" s="63" t="n">
+        <f aca="false">(B118-0.5)/$B$235</f>
+        <v>0.265625</v>
+      </c>
+      <c r="D118" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C118)</f>
-        <v>-0.497622701317951</v>
+        <v>-0.626099012346421</v>
       </c>
       <c r="E118" s="16" t="n">
-        <v>-0.00136000000000001</v>
+        <v>-0.002</v>
       </c>
       <c r="F118" s="16" t="n">
-        <v>-0.00232000000000002</v>
+        <v>-0.00152000000000001</v>
       </c>
       <c r="X118" s="16" t="n">
         <v>0.10112</v>
@@ -15462,6 +16322,7 @@
       <c r="Y118" s="16" t="n">
         <v>-0.00232000000000002</v>
       </c>
+      <c r="Z118" s="40"/>
       <c r="AX118" s="15" t="s">
         <v>22</v>
       </c>
@@ -15500,22 +16361,22 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="57" t="n">
-        <v>51</v>
-      </c>
-      <c r="C119" s="58" t="n">
-        <f aca="false">(B119-0.5)/$B$228</f>
-        <v>0.315625</v>
-      </c>
-      <c r="D119" s="58" t="n">
+      <c r="B119" s="62" t="n">
+        <v>44</v>
+      </c>
+      <c r="C119" s="63" t="n">
+        <f aca="false">(B119-0.5)/$B$235</f>
+        <v>0.271875</v>
+      </c>
+      <c r="D119" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C119)</f>
-        <v>-0.479968207135425</v>
+        <v>-0.607152065636956</v>
       </c>
       <c r="E119" s="16" t="n">
-        <v>-0.00136000000000001</v>
+        <v>-0.002</v>
       </c>
       <c r="F119" s="16" t="n">
-        <v>-0.00199999999999999</v>
+        <v>-0.00192000000000001</v>
       </c>
       <c r="X119" s="16" t="n">
         <v>0.0956</v>
@@ -15523,6 +16384,7 @@
       <c r="Y119" s="16" t="n">
         <v>-0.00199999999999999</v>
       </c>
+      <c r="Z119" s="40"/>
       <c r="AX119" s="15" t="s">
         <v>22</v>
       </c>
@@ -15561,22 +16423,22 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="57" t="n">
-        <v>52</v>
-      </c>
-      <c r="C120" s="58" t="n">
-        <f aca="false">(B120-0.5)/$B$228</f>
-        <v>0.321875</v>
-      </c>
-      <c r="D120" s="58" t="n">
+      <c r="B120" s="62" t="n">
+        <v>45</v>
+      </c>
+      <c r="C120" s="63" t="n">
+        <f aca="false">(B120-0.5)/$B$235</f>
+        <v>0.278125</v>
+      </c>
+      <c r="D120" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C120)</f>
-        <v>-0.462462065267687</v>
+        <v>-0.588420620902714</v>
       </c>
       <c r="E120" s="16" t="n">
-        <v>-0.00136000000000001</v>
+        <v>-0.00199999999999999</v>
       </c>
       <c r="F120" s="16" t="n">
-        <v>-0.00480000000000001</v>
+        <v>0.00144000000000001</v>
       </c>
       <c r="X120" s="16" t="n">
         <v>0.0924</v>
@@ -15584,6 +16446,7 @@
       <c r="Y120" s="16" t="n">
         <v>-0.00480000000000001</v>
       </c>
+      <c r="Z120" s="40"/>
       <c r="AX120" s="15" t="s">
         <v>22</v>
       </c>
@@ -15622,22 +16485,22 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="57" t="n">
-        <v>53</v>
-      </c>
-      <c r="C121" s="58" t="n">
-        <f aca="false">(B121-0.5)/$B$228</f>
-        <v>0.328125</v>
-      </c>
-      <c r="D121" s="58" t="n">
+      <c r="B121" s="62" t="n">
+        <v>46</v>
+      </c>
+      <c r="C121" s="63" t="n">
+        <f aca="false">(B121-0.5)/$B$235</f>
+        <v>0.284375</v>
+      </c>
+      <c r="D121" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C121)</f>
-        <v>-0.445096524985516</v>
+        <v>-0.569893402348136</v>
       </c>
       <c r="E121" s="16" t="n">
-        <v>-0.00136000000000001</v>
+        <v>-0.00192000000000001</v>
       </c>
       <c r="F121" s="16" t="n">
-        <v>0.00023999999999999</v>
+        <v>0.00168</v>
       </c>
       <c r="X121" s="16" t="n">
         <v>0.06816</v>
@@ -15645,6 +16508,7 @@
       <c r="Y121" s="16" t="n">
         <v>0.00023999999999999</v>
       </c>
+      <c r="Z121" s="40"/>
       <c r="AX121" s="15" t="s">
         <v>22</v>
       </c>
@@ -15683,22 +16547,22 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="57" t="n">
-        <v>54</v>
-      </c>
-      <c r="C122" s="58" t="n">
-        <f aca="false">(B122-0.5)/$B$228</f>
-        <v>0.334375</v>
-      </c>
-      <c r="D122" s="58" t="n">
+      <c r="B122" s="62" t="n">
+        <v>47</v>
+      </c>
+      <c r="C122" s="63" t="n">
+        <f aca="false">(B122-0.5)/$B$235</f>
+        <v>0.290625</v>
+      </c>
+      <c r="D122" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C122)</f>
-        <v>-0.427864189931375</v>
+        <v>-0.551559778308309</v>
       </c>
       <c r="E122" s="16" t="n">
-        <v>-0.00135999999999999</v>
+        <v>-0.00152000000000001</v>
       </c>
       <c r="F122" s="16" t="n">
-        <v>0.00023999999999999</v>
+        <v>0.00239999999999999</v>
       </c>
       <c r="X122" s="16" t="n">
         <v>0.06816</v>
@@ -15706,6 +16570,7 @@
       <c r="Y122" s="16" t="n">
         <v>0.00023999999999999</v>
       </c>
+      <c r="Z122" s="40"/>
       <c r="AX122" s="15" t="s">
         <v>22</v>
       </c>
@@ -15744,22 +16609,22 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="57" t="n">
-        <v>55</v>
-      </c>
-      <c r="C123" s="58" t="n">
-        <f aca="false">(B123-0.5)/$B$228</f>
-        <v>0.340625</v>
-      </c>
-      <c r="D123" s="58" t="n">
+      <c r="B123" s="62" t="n">
+        <v>48</v>
+      </c>
+      <c r="C123" s="63" t="n">
+        <f aca="false">(B123-0.5)/$B$235</f>
+        <v>0.296875</v>
+      </c>
+      <c r="D123" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C123)</f>
-        <v>-0.410757990443504</v>
+        <v>-0.53340970624128</v>
       </c>
       <c r="E123" s="16" t="n">
-        <v>-0.00128</v>
+        <v>-0.00144</v>
       </c>
       <c r="F123" s="16" t="n">
-        <v>0.00023999999999999</v>
+        <v>-0.000240000000000004</v>
       </c>
       <c r="X123" s="16" t="n">
         <v>0.06816</v>
@@ -15767,6 +16632,7 @@
       <c r="Y123" s="16" t="n">
         <v>0.00023999999999999</v>
       </c>
+      <c r="Z123" s="40"/>
       <c r="AX123" s="15" t="s">
         <v>22</v>
       </c>
@@ -15805,22 +16671,22 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="57" t="n">
-        <v>56</v>
-      </c>
-      <c r="C124" s="58" t="n">
-        <f aca="false">(B124-0.5)/$B$228</f>
-        <v>0.346875</v>
-      </c>
-      <c r="D124" s="58" t="n">
+      <c r="B124" s="62" t="n">
+        <v>49</v>
+      </c>
+      <c r="C124" s="63" t="n">
+        <f aca="false">(B124-0.5)/$B$235</f>
+        <v>0.303125</v>
+      </c>
+      <c r="D124" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C124)</f>
-        <v>-0.393771158229159</v>
+        <v>-0.515433683228519</v>
       </c>
       <c r="E124" s="16" t="n">
-        <v>-0.00128</v>
+        <v>-0.00136000000000001</v>
       </c>
       <c r="F124" s="16" t="n">
-        <v>0.000320000000000001</v>
+        <v>-0.0024</v>
       </c>
       <c r="X124" s="16" t="n">
         <v>0.06808</v>
@@ -15828,6 +16694,7 @@
       <c r="Y124" s="16" t="n">
         <v>0.000320000000000001</v>
       </c>
+      <c r="Z124" s="40"/>
       <c r="AX124" s="15" t="s">
         <v>22</v>
       </c>
@@ -15866,22 +16733,22 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="57" t="n">
-        <v>57</v>
-      </c>
-      <c r="C125" s="58" t="n">
-        <f aca="false">(B125-0.5)/$B$228</f>
-        <v>0.353125</v>
-      </c>
-      <c r="D125" s="58" t="n">
+      <c r="B125" s="62" t="n">
+        <v>50</v>
+      </c>
+      <c r="C125" s="63" t="n">
+        <f aca="false">(B125-0.5)/$B$235</f>
+        <v>0.309375</v>
+      </c>
+      <c r="D125" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C125)</f>
-        <v>-0.376897203134596</v>
+        <v>-0.497622701317951</v>
       </c>
       <c r="E125" s="16" t="n">
-        <v>-0.00128</v>
+        <v>-0.00136000000000001</v>
       </c>
       <c r="F125" s="16" t="n">
-        <v>-0.002</v>
+        <v>-0.00232000000000002</v>
       </c>
       <c r="X125" s="16" t="n">
         <v>0.1008</v>
@@ -15889,6 +16756,7 @@
       <c r="Y125" s="16" t="n">
         <v>-0.002</v>
       </c>
+      <c r="Z125" s="40"/>
       <c r="AX125" s="15" t="s">
         <v>22</v>
       </c>
@@ -15927,22 +16795,22 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="57" t="n">
-        <v>58</v>
-      </c>
-      <c r="C126" s="58" t="n">
-        <f aca="false">(B126-0.5)/$B$228</f>
-        <v>0.359375</v>
-      </c>
-      <c r="D126" s="58" t="n">
+      <c r="B126" s="62" t="n">
+        <v>51</v>
+      </c>
+      <c r="C126" s="63" t="n">
+        <f aca="false">(B126-0.5)/$B$235</f>
+        <v>0.315625</v>
+      </c>
+      <c r="D126" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C126)</f>
-        <v>-0.360129891789569</v>
+        <v>-0.479968207135425</v>
       </c>
       <c r="E126" s="16" t="n">
-        <v>-0.00128</v>
+        <v>-0.00136000000000001</v>
       </c>
       <c r="F126" s="16" t="n">
-        <v>-0.002</v>
+        <v>-0.00199999999999999</v>
       </c>
       <c r="X126" s="16" t="n">
         <v>0.1008</v>
@@ -15950,6 +16818,7 @@
       <c r="Y126" s="16" t="n">
         <v>-0.002</v>
       </c>
+      <c r="Z126" s="40"/>
       <c r="AX126" s="15" t="s">
         <v>22</v>
       </c>
@@ -15988,22 +16857,22 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="57" t="n">
-        <v>59</v>
-      </c>
-      <c r="C127" s="58" t="n">
-        <f aca="false">(B127-0.5)/$B$228</f>
-        <v>0.365625</v>
-      </c>
-      <c r="D127" s="58" t="n">
+      <c r="B127" s="62" t="n">
+        <v>52</v>
+      </c>
+      <c r="C127" s="63" t="n">
+        <f aca="false">(B127-0.5)/$B$235</f>
+        <v>0.321875</v>
+      </c>
+      <c r="D127" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C127)</f>
-        <v>-0.343463227930046</v>
+        <v>-0.462462065267687</v>
       </c>
       <c r="E127" s="16" t="n">
-        <v>-0.00112</v>
+        <v>-0.00136000000000001</v>
       </c>
       <c r="F127" s="16" t="n">
-        <v>-0.00319999999999999</v>
+        <v>-0.00480000000000001</v>
       </c>
       <c r="X127" s="16" t="n">
         <v>0.0884</v>
@@ -16011,6 +16880,7 @@
       <c r="Y127" s="16" t="n">
         <v>-0.00319999999999999</v>
       </c>
+      <c r="Z127" s="40"/>
       <c r="AX127" s="15" t="s">
         <v>22</v>
       </c>
@@ -16049,22 +16919,22 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="57" t="n">
-        <v>60</v>
-      </c>
-      <c r="C128" s="58" t="n">
-        <f aca="false">(B128-0.5)/$B$228</f>
-        <v>0.371875</v>
-      </c>
-      <c r="D128" s="58" t="n">
+      <c r="B128" s="62" t="n">
+        <v>53</v>
+      </c>
+      <c r="C128" s="63" t="n">
+        <f aca="false">(B128-0.5)/$B$235</f>
+        <v>0.328125</v>
+      </c>
+      <c r="D128" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C128)</f>
-        <v>-0.326891434225336</v>
+        <v>-0.445096524985516</v>
       </c>
       <c r="E128" s="16" t="n">
-        <v>-0.000640000000000002</v>
+        <v>-0.00136000000000001</v>
       </c>
       <c r="F128" s="16" t="n">
-        <v>-0.00320000000000001</v>
+        <v>0.00023999999999999</v>
       </c>
       <c r="X128" s="16" t="n">
         <v>0.0828</v>
@@ -16072,6 +16942,7 @@
       <c r="Y128" s="16" t="n">
         <v>-0.00320000000000001</v>
       </c>
+      <c r="Z128" s="40"/>
       <c r="AX128" s="15" t="s">
         <v>22</v>
       </c>
@@ -16110,19 +16981,19 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="57" t="n">
-        <v>61</v>
-      </c>
-      <c r="C129" s="58" t="n">
-        <f aca="false">(B129-0.5)/$B$228</f>
-        <v>0.378125</v>
-      </c>
-      <c r="D129" s="58" t="n">
+      <c r="B129" s="62" t="n">
+        <v>54</v>
+      </c>
+      <c r="C129" s="63" t="n">
+        <f aca="false">(B129-0.5)/$B$235</f>
+        <v>0.334375</v>
+      </c>
+      <c r="D129" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C129)</f>
-        <v>-0.310408935455323</v>
+        <v>-0.427864189931375</v>
       </c>
       <c r="E129" s="16" t="n">
-        <v>-0.000640000000000002</v>
+        <v>-0.00135999999999999</v>
       </c>
       <c r="F129" s="16" t="n">
         <v>0.00023999999999999</v>
@@ -16133,6 +17004,7 @@
       <c r="Y129" s="16" t="n">
         <v>0.00023999999999999</v>
       </c>
+      <c r="Z129" s="40"/>
       <c r="AX129" s="15" t="s">
         <v>22</v>
       </c>
@@ -16171,19 +17043,19 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="57" t="n">
-        <v>62</v>
-      </c>
-      <c r="C130" s="58" t="n">
-        <f aca="false">(B130-0.5)/$B$228</f>
-        <v>0.384375</v>
-      </c>
-      <c r="D130" s="58" t="n">
+      <c r="B130" s="62" t="n">
+        <v>55</v>
+      </c>
+      <c r="C130" s="63" t="n">
+        <f aca="false">(B130-0.5)/$B$235</f>
+        <v>0.340625</v>
+      </c>
+      <c r="D130" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C130)</f>
-        <v>-0.294010342900415</v>
+        <v>-0.410757990443504</v>
       </c>
       <c r="E130" s="16" t="n">
-        <v>-0.000640000000000002</v>
+        <v>-0.00128</v>
       </c>
       <c r="F130" s="16" t="n">
         <v>0.00023999999999999</v>
@@ -16194,6 +17066,7 @@
       <c r="Y130" s="16" t="n">
         <v>0.00023999999999999</v>
       </c>
+      <c r="Z130" s="40"/>
       <c r="AX130" s="15" t="s">
         <v>22</v>
       </c>
@@ -16232,19 +17105,19 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="57" t="n">
-        <v>63</v>
-      </c>
-      <c r="C131" s="58" t="n">
-        <f aca="false">(B131-0.5)/$B$228</f>
-        <v>0.390625</v>
-      </c>
-      <c r="D131" s="58" t="n">
+      <c r="B131" s="62" t="n">
+        <v>56</v>
+      </c>
+      <c r="C131" s="63" t="n">
+        <f aca="false">(B131-0.5)/$B$235</f>
+        <v>0.346875</v>
+      </c>
+      <c r="D131" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C131)</f>
-        <v>-0.277690439821577</v>
+        <v>-0.393771158229159</v>
       </c>
       <c r="E131" s="16" t="n">
-        <v>-0.000560000000000005</v>
+        <v>-0.00128</v>
       </c>
       <c r="F131" s="16" t="n">
         <v>0.000320000000000001</v>
@@ -16255,6 +17128,7 @@
       <c r="Y131" s="16" t="n">
         <v>0.000320000000000001</v>
       </c>
+      <c r="Z131" s="40"/>
       <c r="AX131" s="15" t="s">
         <v>22</v>
       </c>
@@ -16293,29 +17167,30 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="57" t="n">
-        <v>64</v>
-      </c>
-      <c r="C132" s="58" t="n">
-        <f aca="false">(B132-0.5)/$B$228</f>
-        <v>0.396875</v>
-      </c>
-      <c r="D132" s="58" t="n">
+      <c r="B132" s="62" t="n">
+        <v>57</v>
+      </c>
+      <c r="C132" s="63" t="n">
+        <f aca="false">(B132-0.5)/$B$235</f>
+        <v>0.353125</v>
+      </c>
+      <c r="D132" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C132)</f>
-        <v>-0.26144416792067</v>
+        <v>-0.376897203134596</v>
       </c>
       <c r="E132" s="16" t="n">
-        <v>-0.000480000000000008</v>
+        <v>-0.00128</v>
       </c>
       <c r="F132" s="16" t="n">
-        <v>0.000719999999999998</v>
+        <v>-0.002</v>
       </c>
       <c r="X132" s="16" t="n">
         <v>0.06728</v>
       </c>
-      <c r="Y132" s="16" t="n">
+      <c r="Y132" s="39" t="n">
         <v>0.000719999999999998</v>
       </c>
+      <c r="Z132" s="40"/>
       <c r="AX132" s="15" t="s">
         <v>22</v>
       </c>
@@ -16354,27 +17229,27 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="57" t="n">
-        <v>65</v>
-      </c>
-      <c r="C133" s="58" t="n">
-        <f aca="false">(B133-0.5)/$B$228</f>
-        <v>0.403125</v>
-      </c>
-      <c r="D133" s="58" t="n">
+      <c r="B133" s="62" t="n">
+        <v>58</v>
+      </c>
+      <c r="C133" s="63" t="n">
+        <f aca="false">(B133-0.5)/$B$235</f>
+        <v>0.359375</v>
+      </c>
+      <c r="D133" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C133)</f>
-        <v>-0.245266614682556</v>
+        <v>-0.360129891789569</v>
       </c>
       <c r="E133" s="16" t="n">
-        <v>-0.000400000000000011</v>
+        <v>-0.00128</v>
       </c>
       <c r="F133" s="16" t="n">
-        <v>-0.00327999999999999</v>
+        <v>-0.002</v>
       </c>
       <c r="X133" s="16" t="n">
         <v>0.09888</v>
       </c>
-      <c r="Y133" s="16" t="n">
+      <c r="Y133" s="12" t="n">
         <v>-0.00327999999999999</v>
       </c>
       <c r="AX133" s="15" t="s">
@@ -16415,22 +17290,22 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="57" t="n">
-        <v>66</v>
-      </c>
-      <c r="C134" s="58" t="n">
-        <f aca="false">(B134-0.5)/$B$228</f>
-        <v>0.409375</v>
-      </c>
-      <c r="D134" s="58" t="n">
+      <c r="B134" s="62" t="n">
+        <v>59</v>
+      </c>
+      <c r="C134" s="63" t="n">
+        <f aca="false">(B134-0.5)/$B$235</f>
+        <v>0.365625</v>
+      </c>
+      <c r="D134" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C134)</f>
-        <v>-0.229153001510235</v>
+        <v>-0.343463227930046</v>
       </c>
       <c r="E134" s="16" t="n">
-        <v>-0.000399999999999998</v>
+        <v>-0.00112</v>
       </c>
       <c r="F134" s="16" t="n">
-        <v>-0.00336</v>
+        <v>-0.00319999999999999</v>
       </c>
       <c r="X134" s="16" t="n">
         <v>0.09856</v>
@@ -16476,22 +17351,22 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="57" t="n">
-        <v>67</v>
-      </c>
-      <c r="C135" s="58" t="n">
-        <f aca="false">(B135-0.5)/$B$228</f>
-        <v>0.415625</v>
-      </c>
-      <c r="D135" s="58" t="n">
+      <c r="B135" s="62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C135" s="63" t="n">
+        <f aca="false">(B135-0.5)/$B$235</f>
+        <v>0.371875</v>
+      </c>
+      <c r="D135" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C135)</f>
-        <v>-0.213098672572898</v>
+        <v>-0.326891434225336</v>
       </c>
       <c r="E135" s="16" t="n">
-        <v>-0.000320000000000001</v>
+        <v>-0.000640000000000002</v>
       </c>
       <c r="F135" s="16" t="n">
-        <v>-0.01408</v>
+        <v>-0.00320000000000001</v>
       </c>
       <c r="X135" s="16" t="n">
         <v>0.08928</v>
@@ -16537,22 +17412,22 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="57" t="n">
-        <v>68</v>
-      </c>
-      <c r="C136" s="58" t="n">
-        <f aca="false">(B136-0.5)/$B$228</f>
-        <v>0.421875</v>
-      </c>
-      <c r="D136" s="58" t="n">
+      <c r="B136" s="62" t="n">
+        <v>61</v>
+      </c>
+      <c r="C136" s="63" t="n">
+        <f aca="false">(B136-0.5)/$B$235</f>
+        <v>0.378125</v>
+      </c>
+      <c r="D136" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C136)</f>
-        <v>-0.197099084294312</v>
+        <v>-0.310408935455323</v>
       </c>
       <c r="E136" s="16" t="n">
-        <v>-0.000240000000000004</v>
+        <v>-0.000640000000000002</v>
       </c>
       <c r="F136" s="16" t="n">
-        <v>-0.01192</v>
+        <v>0.00023999999999999</v>
       </c>
       <c r="X136" s="16" t="n">
         <v>0.08272</v>
@@ -16598,22 +17473,22 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="57" t="n">
-        <v>69</v>
-      </c>
-      <c r="C137" s="58" t="n">
-        <f aca="false">(B137-0.5)/$B$228</f>
-        <v>0.428125</v>
-      </c>
-      <c r="D137" s="58" t="n">
+      <c r="B137" s="62" t="n">
+        <v>62</v>
+      </c>
+      <c r="C137" s="63" t="n">
+        <f aca="false">(B137-0.5)/$B$235</f>
+        <v>0.384375</v>
+      </c>
+      <c r="D137" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C137)</f>
-        <v>-0.181149795415536</v>
+        <v>-0.294010342900415</v>
       </c>
       <c r="E137" s="16" t="n">
-        <v>-0.00023999999999999</v>
+        <v>-0.000640000000000002</v>
       </c>
       <c r="F137" s="16" t="n">
-        <v>0.00192000000000001</v>
+        <v>0.00023999999999999</v>
       </c>
       <c r="X137" s="16" t="n">
         <v>0.06768</v>
@@ -16659,22 +17534,22 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="57" t="n">
-        <v>70</v>
-      </c>
-      <c r="C138" s="58" t="n">
-        <f aca="false">(B138-0.5)/$B$228</f>
-        <v>0.434375</v>
-      </c>
-      <c r="D138" s="58" t="n">
+      <c r="B138" s="62" t="n">
+        <v>63</v>
+      </c>
+      <c r="C138" s="63" t="n">
+        <f aca="false">(B138-0.5)/$B$235</f>
+        <v>0.390625</v>
+      </c>
+      <c r="D138" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C138)</f>
-        <v>-0.165246457571776</v>
+        <v>-0.277690439821577</v>
       </c>
       <c r="E138" s="16" t="n">
-        <v>-7.99999999999967E-005</v>
+        <v>-0.000560000000000005</v>
       </c>
       <c r="F138" s="16" t="n">
-        <v>0.00192000000000001</v>
+        <v>0.000320000000000001</v>
       </c>
       <c r="X138" s="16" t="n">
         <v>0.06768</v>
@@ -16720,22 +17595,22 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="57" t="n">
-        <v>71</v>
-      </c>
-      <c r="C139" s="58" t="n">
-        <f aca="false">(B139-0.5)/$B$228</f>
-        <v>0.440625</v>
-      </c>
-      <c r="D139" s="58" t="n">
+      <c r="B139" s="62" t="n">
+        <v>64</v>
+      </c>
+      <c r="C139" s="63" t="n">
+        <f aca="false">(B139-0.5)/$B$235</f>
+        <v>0.396875</v>
+      </c>
+      <c r="D139" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C139)</f>
-        <v>-0.149384806328247</v>
+        <v>-0.26144416792067</v>
       </c>
       <c r="E139" s="16" t="n">
-        <v>0</v>
+        <v>-0.000480000000000008</v>
       </c>
       <c r="F139" s="16" t="n">
-        <v>0.00136</v>
+        <v>0.000719999999999998</v>
       </c>
       <c r="X139" s="16" t="n">
         <v>0.06664</v>
@@ -16781,22 +17656,22 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="57" t="n">
-        <v>72</v>
-      </c>
-      <c r="C140" s="58" t="n">
-        <f aca="false">(B140-0.5)/$B$228</f>
-        <v>0.446875</v>
-      </c>
-      <c r="D140" s="58" t="n">
+      <c r="B140" s="62" t="n">
+        <v>65</v>
+      </c>
+      <c r="C140" s="63" t="n">
+        <f aca="false">(B140-0.5)/$B$235</f>
+        <v>0.403125</v>
+      </c>
+      <c r="D140" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C140)</f>
-        <v>-0.133560652624314</v>
+        <v>-0.245266614682556</v>
       </c>
       <c r="E140" s="16" t="n">
-        <v>0</v>
+        <v>-0.000400000000000011</v>
       </c>
       <c r="F140" s="16" t="n">
-        <v>-0.000640000000000002</v>
+        <v>-0.00327999999999999</v>
       </c>
       <c r="X140" s="16" t="n">
         <v>0.06544</v>
@@ -16842,22 +17717,22 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="57" t="n">
-        <v>73</v>
-      </c>
-      <c r="C141" s="58" t="n">
-        <f aca="false">(B141-0.5)/$B$228</f>
-        <v>0.453125</v>
-      </c>
-      <c r="D141" s="58" t="n">
+      <c r="B141" s="62" t="n">
+        <v>66</v>
+      </c>
+      <c r="C141" s="63" t="n">
+        <f aca="false">(B141-0.5)/$B$235</f>
+        <v>0.409375</v>
+      </c>
+      <c r="D141" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C141)</f>
-        <v>-0.117769874579095</v>
+        <v>-0.229153001510235</v>
       </c>
       <c r="E141" s="16" t="n">
-        <v>7.99999999999829E-005</v>
+        <v>-0.000399999999999998</v>
       </c>
       <c r="F141" s="16" t="n">
-        <v>-0.00512</v>
+        <v>-0.00336</v>
       </c>
       <c r="X141" s="16" t="n">
         <v>0.09592</v>
@@ -16903,22 +17778,22 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="57" t="n">
-        <v>74</v>
-      </c>
-      <c r="C142" s="58" t="n">
-        <f aca="false">(B142-0.5)/$B$228</f>
-        <v>0.459375</v>
-      </c>
-      <c r="D142" s="58" t="n">
+      <c r="B142" s="62" t="n">
+        <v>67</v>
+      </c>
+      <c r="C142" s="63" t="n">
+        <f aca="false">(B142-0.5)/$B$235</f>
+        <v>0.415625</v>
+      </c>
+      <c r="D142" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C142)</f>
-        <v>-0.102008409615026</v>
+        <v>-0.213098672572898</v>
       </c>
       <c r="E142" s="16" t="n">
-        <v>0.00023999999999999</v>
+        <v>-0.000320000000000001</v>
       </c>
       <c r="F142" s="16" t="n">
-        <v>-0.00552000000000001</v>
+        <v>-0.01408</v>
       </c>
       <c r="X142" s="16" t="n">
         <v>0.09552</v>
@@ -16964,22 +17839,22 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="57" t="n">
-        <v>75</v>
-      </c>
-      <c r="C143" s="58" t="n">
-        <f aca="false">(B143-0.5)/$B$228</f>
-        <v>0.465625</v>
-      </c>
-      <c r="D143" s="58" t="n">
+      <c r="B143" s="62" t="n">
+        <v>68</v>
+      </c>
+      <c r="C143" s="63" t="n">
+        <f aca="false">(B143-0.5)/$B$235</f>
+        <v>0.421875</v>
+      </c>
+      <c r="D143" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C143)</f>
-        <v>-0.0862722468588067</v>
+        <v>-0.197099084294312</v>
       </c>
       <c r="E143" s="16" t="n">
-        <v>0.00023999999999999</v>
+        <v>-0.000240000000000004</v>
       </c>
       <c r="F143" s="16" t="n">
-        <v>-0.01952</v>
+        <v>-0.01192</v>
       </c>
       <c r="X143" s="16" t="n">
         <v>0.07392</v>
@@ -17025,22 +17900,22 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="57" t="n">
-        <v>76</v>
-      </c>
-      <c r="C144" s="58" t="n">
-        <f aca="false">(B144-0.5)/$B$228</f>
-        <v>0.471875</v>
-      </c>
-      <c r="D144" s="58" t="n">
+      <c r="B144" s="62" t="n">
+        <v>69</v>
+      </c>
+      <c r="C144" s="63" t="n">
+        <f aca="false">(B144-0.5)/$B$235</f>
+        <v>0.428125</v>
+      </c>
+      <c r="D144" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C144)</f>
-        <v>-0.0705574197816676</v>
+        <v>-0.181149795415536</v>
       </c>
       <c r="E144" s="16" t="n">
-        <v>0.00023999999999999</v>
+        <v>-0.00023999999999999</v>
       </c>
       <c r="F144" s="16" t="n">
-        <v>-0.01752</v>
+        <v>0.00192000000000001</v>
       </c>
       <c r="X144" s="16" t="n">
         <v>0.06832</v>
@@ -17086,22 +17961,22 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="57" t="n">
-        <v>77</v>
-      </c>
-      <c r="C145" s="58" t="n">
-        <f aca="false">(B145-0.5)/$B$228</f>
-        <v>0.478125</v>
-      </c>
-      <c r="D145" s="58" t="n">
+      <c r="B145" s="62" t="n">
+        <v>70</v>
+      </c>
+      <c r="C145" s="63" t="n">
+        <f aca="false">(B145-0.5)/$B$235</f>
+        <v>0.434375</v>
+      </c>
+      <c r="D145" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C145)</f>
-        <v>-0.0548599990429864</v>
+        <v>-0.165246457571776</v>
       </c>
       <c r="E145" s="16" t="n">
-        <v>0.00023999999999999</v>
+        <v>-7.99999999999967E-005</v>
       </c>
       <c r="F145" s="16" t="n">
-        <v>0.000240000000000018</v>
+        <v>0.00192000000000001</v>
       </c>
       <c r="X145" s="16" t="n">
         <v>0.06696</v>
@@ -17147,22 +18022,22 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="57" t="n">
-        <v>78</v>
-      </c>
-      <c r="C146" s="58" t="n">
-        <f aca="false">(B146-0.5)/$B$228</f>
-        <v>0.484375</v>
-      </c>
-      <c r="D146" s="58" t="n">
+      <c r="B146" s="62" t="n">
+        <v>71</v>
+      </c>
+      <c r="C146" s="63" t="n">
+        <f aca="false">(B146-0.5)/$B$235</f>
+        <v>0.440625</v>
+      </c>
+      <c r="D146" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C146)</f>
-        <v>-0.0391760855030976</v>
+        <v>-0.149384806328247</v>
       </c>
       <c r="E146" s="16" t="n">
-        <v>0.00023999999999999</v>
+        <v>0</v>
       </c>
       <c r="F146" s="16" t="n">
-        <v>-0.000320000000000001</v>
+        <v>0.00136</v>
       </c>
       <c r="X146" s="16" t="n">
         <v>0.06672</v>
@@ -17208,22 +18083,22 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="57" t="n">
-        <v>79</v>
-      </c>
-      <c r="C147" s="58" t="n">
-        <f aca="false">(B147-0.5)/$B$228</f>
-        <v>0.490625</v>
-      </c>
-      <c r="D147" s="58" t="n">
+      <c r="B147" s="62" t="n">
+        <v>72</v>
+      </c>
+      <c r="C147" s="63" t="n">
+        <f aca="false">(B147-0.5)/$B$235</f>
+        <v>0.446875</v>
+      </c>
+      <c r="D147" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C147)</f>
-        <v>-0.0235018033725941</v>
+        <v>-0.133560652624314</v>
       </c>
       <c r="E147" s="16" t="n">
-        <v>0.000240000000000018</v>
+        <v>0</v>
       </c>
       <c r="F147" s="16" t="n">
-        <v>-0.01</v>
+        <v>-0.000640000000000002</v>
       </c>
       <c r="X147" s="16" t="n">
         <v>0.0616</v>
@@ -17269,22 +18144,22 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="57" t="n">
-        <v>80</v>
-      </c>
-      <c r="C148" s="58" t="n">
-        <f aca="false">(B148-0.5)/$B$228</f>
-        <v>0.496875</v>
-      </c>
-      <c r="D148" s="58" t="n">
+      <c r="B148" s="62" t="n">
+        <v>73</v>
+      </c>
+      <c r="C148" s="63" t="n">
+        <f aca="false">(B148-0.5)/$B$235</f>
+        <v>0.453125</v>
+      </c>
+      <c r="D148" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C148)</f>
-        <v>-0.00783329346660091</v>
+        <v>-0.117769874579095</v>
       </c>
       <c r="E148" s="16" t="n">
-        <v>0.000320000000000001</v>
+        <v>7.99999999999829E-005</v>
       </c>
       <c r="F148" s="16" t="n">
-        <v>-0.01224</v>
+        <v>-0.00512</v>
       </c>
       <c r="X148" s="16" t="n">
         <v>0.05984</v>
@@ -17330,23 +18205,22 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="59" t="n">
-        <f aca="false">$B148+1</f>
-        <v>81</v>
-      </c>
-      <c r="C149" s="58" t="n">
-        <f aca="false">(B149-0.5)/$B$228</f>
-        <v>0.503125</v>
-      </c>
-      <c r="D149" s="58" t="n">
+      <c r="B149" s="62" t="n">
+        <v>74</v>
+      </c>
+      <c r="C149" s="63" t="n">
+        <f aca="false">(B149-0.5)/$B$235</f>
+        <v>0.459375</v>
+      </c>
+      <c r="D149" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C149)</f>
-        <v>0.00783329346660105</v>
+        <v>-0.102008409615026</v>
       </c>
       <c r="E149" s="16" t="n">
-        <v>0.000320000000000001</v>
+        <v>0.00023999999999999</v>
       </c>
       <c r="F149" s="16" t="n">
-        <v>0.002</v>
+        <v>-0.00552000000000001</v>
       </c>
       <c r="X149" s="16" t="n">
         <v>0.1012</v>
@@ -17392,23 +18266,22 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="59" t="n">
-        <f aca="false">$B149+1</f>
-        <v>82</v>
-      </c>
-      <c r="C150" s="58" t="n">
-        <f aca="false">(B150-0.5)/$B$228</f>
-        <v>0.509375</v>
-      </c>
-      <c r="D150" s="58" t="n">
+      <c r="B150" s="62" t="n">
+        <v>75</v>
+      </c>
+      <c r="C150" s="63" t="n">
+        <f aca="false">(B150-0.5)/$B$235</f>
+        <v>0.465625</v>
+      </c>
+      <c r="D150" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C150)</f>
-        <v>0.0235018033725941</v>
+        <v>-0.0862722468588067</v>
       </c>
       <c r="E150" s="16" t="n">
-        <v>0.000399999999999998</v>
+        <v>0.00023999999999999</v>
       </c>
       <c r="F150" s="16" t="n">
-        <v>0.00167999999999999</v>
+        <v>-0.01952</v>
       </c>
       <c r="X150" s="16" t="n">
         <v>0.10112</v>
@@ -17454,23 +18327,22 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="59" t="n">
-        <f aca="false">$B150+1</f>
-        <v>83</v>
-      </c>
-      <c r="C151" s="58" t="n">
-        <f aca="false">(B151-0.5)/$B$228</f>
-        <v>0.515625</v>
-      </c>
-      <c r="D151" s="58" t="n">
+      <c r="B151" s="62" t="n">
+        <v>76</v>
+      </c>
+      <c r="C151" s="63" t="n">
+        <f aca="false">(B151-0.5)/$B$235</f>
+        <v>0.471875</v>
+      </c>
+      <c r="D151" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C151)</f>
-        <v>0.0391760855030976</v>
+        <v>-0.0705574197816676</v>
       </c>
       <c r="E151" s="16" t="n">
-        <v>0.000399999999999998</v>
+        <v>0.00023999999999999</v>
       </c>
       <c r="F151" s="16" t="n">
-        <v>-0.00559999999999999</v>
+        <v>-0.01752</v>
       </c>
       <c r="X151" s="16" t="n">
         <v>0.0956</v>
@@ -17516,23 +18388,22 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="59" t="n">
-        <f aca="false">$B151+1</f>
-        <v>84</v>
-      </c>
-      <c r="C152" s="58" t="n">
-        <f aca="false">(B152-0.5)/$B$228</f>
-        <v>0.521875</v>
-      </c>
-      <c r="D152" s="58" t="n">
+      <c r="B152" s="62" t="n">
+        <v>77</v>
+      </c>
+      <c r="C152" s="63" t="n">
+        <f aca="false">(B152-0.5)/$B$235</f>
+        <v>0.478125</v>
+      </c>
+      <c r="D152" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C152)</f>
-        <v>0.0548599990429864</v>
+        <v>-0.0548599990429864</v>
       </c>
       <c r="E152" s="16" t="n">
-        <v>0.000399999999999998</v>
+        <v>0.00023999999999999</v>
       </c>
       <c r="F152" s="16" t="n">
-        <v>-0.00600000000000001</v>
+        <v>0.000240000000000018</v>
       </c>
       <c r="X152" s="16" t="n">
         <v>0.0924</v>
@@ -17578,23 +18449,22 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="59" t="n">
-        <f aca="false">$B152+1</f>
-        <v>85</v>
-      </c>
-      <c r="C153" s="58" t="n">
-        <f aca="false">(B153-0.5)/$B$228</f>
-        <v>0.528125</v>
-      </c>
-      <c r="D153" s="58" t="n">
+      <c r="B153" s="62" t="n">
+        <v>78</v>
+      </c>
+      <c r="C153" s="63" t="n">
+        <f aca="false">(B153-0.5)/$B$235</f>
+        <v>0.484375</v>
+      </c>
+      <c r="D153" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C153)</f>
-        <v>0.0705574197816675</v>
+        <v>-0.0391760855030976</v>
       </c>
       <c r="E153" s="16" t="n">
-        <v>0.000399999999999998</v>
+        <v>0.00023999999999999</v>
       </c>
       <c r="F153" s="16" t="n">
-        <v>0.00343999999999998</v>
+        <v>-0.000320000000000001</v>
       </c>
       <c r="X153" s="16" t="n">
         <v>0.06816</v>
@@ -17640,23 +18510,22 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="59" t="n">
-        <f aca="false">$B153+1</f>
-        <v>86</v>
-      </c>
-      <c r="C154" s="58" t="n">
-        <f aca="false">(B154-0.5)/$B$228</f>
-        <v>0.534375</v>
-      </c>
-      <c r="D154" s="58" t="n">
+      <c r="B154" s="62" t="n">
+        <v>79</v>
+      </c>
+      <c r="C154" s="63" t="n">
+        <f aca="false">(B154-0.5)/$B$235</f>
+        <v>0.490625</v>
+      </c>
+      <c r="D154" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C154)</f>
-        <v>0.0862722468588068</v>
+        <v>-0.0235018033725941</v>
       </c>
       <c r="E154" s="16" t="n">
-        <v>0.000479999999999994</v>
+        <v>0.000240000000000018</v>
       </c>
       <c r="F154" s="16" t="n">
-        <v>0.00343999999999998</v>
+        <v>-0.01</v>
       </c>
       <c r="X154" s="16" t="n">
         <v>0.06816</v>
@@ -17702,23 +18571,22 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="59" t="n">
-        <f aca="false">$B154+1</f>
-        <v>87</v>
-      </c>
-      <c r="C155" s="58" t="n">
-        <f aca="false">(B155-0.5)/$B$228</f>
-        <v>0.540625</v>
-      </c>
-      <c r="D155" s="58" t="n">
+      <c r="B155" s="62" t="n">
+        <v>80</v>
+      </c>
+      <c r="C155" s="63" t="n">
+        <f aca="false">(B155-0.5)/$B$235</f>
+        <v>0.496875</v>
+      </c>
+      <c r="D155" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C155)</f>
-        <v>0.102008409615026</v>
+        <v>-0.00783329346660091</v>
       </c>
       <c r="E155" s="16" t="n">
-        <v>0.000560000000000005</v>
+        <v>0.000320000000000001</v>
       </c>
       <c r="F155" s="16" t="n">
-        <v>0.00343999999999998</v>
+        <v>-0.01224</v>
       </c>
       <c r="X155" s="16" t="n">
         <v>0.06816</v>
@@ -17764,23 +18632,23 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="59" t="n">
+      <c r="B156" s="64" t="n">
         <f aca="false">$B155+1</f>
-        <v>88</v>
-      </c>
-      <c r="C156" s="58" t="n">
-        <f aca="false">(B156-0.5)/$B$228</f>
-        <v>0.546875</v>
-      </c>
-      <c r="D156" s="58" t="n">
+        <v>81</v>
+      </c>
+      <c r="C156" s="63" t="n">
+        <f aca="false">(B156-0.5)/$B$235</f>
+        <v>0.503125</v>
+      </c>
+      <c r="D156" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C156)</f>
-        <v>0.117769874579095</v>
+        <v>0.00783329346660105</v>
       </c>
       <c r="E156" s="16" t="n">
-        <v>0.000719999999999998</v>
+        <v>0.000320000000000001</v>
       </c>
       <c r="F156" s="16" t="n">
-        <v>0.00352</v>
+        <v>0.002</v>
       </c>
       <c r="X156" s="16" t="n">
         <v>0.06808</v>
@@ -17826,23 +18694,23 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="59" t="n">
+      <c r="B157" s="64" t="n">
         <f aca="false">$B156+1</f>
-        <v>89</v>
-      </c>
-      <c r="C157" s="58" t="n">
-        <f aca="false">(B157-0.5)/$B$228</f>
-        <v>0.553125</v>
-      </c>
-      <c r="D157" s="58" t="n">
+        <v>82</v>
+      </c>
+      <c r="C157" s="63" t="n">
+        <f aca="false">(B157-0.5)/$B$235</f>
+        <v>0.509375</v>
+      </c>
+      <c r="D157" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C157)</f>
-        <v>0.133560652624314</v>
+        <v>0.0235018033725941</v>
       </c>
       <c r="E157" s="16" t="n">
-        <v>0.000719999999999998</v>
+        <v>0.000399999999999998</v>
       </c>
       <c r="F157" s="16" t="n">
-        <v>0.000399999999999998</v>
+        <v>0.00167999999999999</v>
       </c>
       <c r="X157" s="16" t="n">
         <v>0.1008</v>
@@ -17888,23 +18756,23 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="59" t="n">
+      <c r="B158" s="64" t="n">
         <f aca="false">$B157+1</f>
-        <v>90</v>
-      </c>
-      <c r="C158" s="58" t="n">
-        <f aca="false">(B158-0.5)/$B$228</f>
-        <v>0.559375</v>
-      </c>
-      <c r="D158" s="58" t="n">
+        <v>83</v>
+      </c>
+      <c r="C158" s="63" t="n">
+        <f aca="false">(B158-0.5)/$B$235</f>
+        <v>0.515625</v>
+      </c>
+      <c r="D158" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C158)</f>
-        <v>0.149384806328247</v>
+        <v>0.0391760855030976</v>
       </c>
       <c r="E158" s="16" t="n">
-        <v>0.000719999999999998</v>
+        <v>0.000399999999999998</v>
       </c>
       <c r="F158" s="16" t="n">
-        <v>0.000399999999999998</v>
+        <v>-0.00559999999999999</v>
       </c>
       <c r="X158" s="16" t="n">
         <v>0.1008</v>
@@ -17950,23 +18818,23 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="59" t="n">
+      <c r="B159" s="64" t="n">
         <f aca="false">$B158+1</f>
-        <v>91</v>
-      </c>
-      <c r="C159" s="58" t="n">
-        <f aca="false">(B159-0.5)/$B$228</f>
-        <v>0.565625</v>
-      </c>
-      <c r="D159" s="58" t="n">
+        <v>84</v>
+      </c>
+      <c r="C159" s="63" t="n">
+        <f aca="false">(B159-0.5)/$B$235</f>
+        <v>0.521875</v>
+      </c>
+      <c r="D159" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C159)</f>
-        <v>0.165246457571777</v>
+        <v>0.0548599990429864</v>
       </c>
       <c r="E159" s="16" t="n">
-        <v>0.000719999999999998</v>
+        <v>0.000399999999999998</v>
       </c>
       <c r="F159" s="16" t="n">
-        <v>-0.0104</v>
+        <v>-0.00600000000000001</v>
       </c>
       <c r="X159" s="16" t="n">
         <v>0.0884</v>
@@ -18012,23 +18880,23 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="59" t="n">
+      <c r="B160" s="64" t="n">
         <f aca="false">$B159+1</f>
-        <v>92</v>
-      </c>
-      <c r="C160" s="58" t="n">
-        <f aca="false">(B160-0.5)/$B$228</f>
-        <v>0.571875</v>
-      </c>
-      <c r="D160" s="58" t="n">
+        <v>85</v>
+      </c>
+      <c r="C160" s="63" t="n">
+        <f aca="false">(B160-0.5)/$B$235</f>
+        <v>0.528125</v>
+      </c>
+      <c r="D160" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C160)</f>
-        <v>0.181149795415536</v>
+        <v>0.0705574197816675</v>
       </c>
       <c r="E160" s="16" t="n">
-        <v>0.000800000000000009</v>
+        <v>0.000399999999999998</v>
       </c>
       <c r="F160" s="16" t="n">
-        <v>-0.0112</v>
+        <v>0.00343999999999998</v>
       </c>
       <c r="X160" s="16" t="n">
         <v>0.0828</v>
@@ -18074,20 +18942,20 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="59" t="n">
+      <c r="B161" s="64" t="n">
         <f aca="false">$B160+1</f>
-        <v>93</v>
-      </c>
-      <c r="C161" s="58" t="n">
-        <f aca="false">(B161-0.5)/$B$228</f>
-        <v>0.578125</v>
-      </c>
-      <c r="D161" s="58" t="n">
+        <v>86</v>
+      </c>
+      <c r="C161" s="63" t="n">
+        <f aca="false">(B161-0.5)/$B$235</f>
+        <v>0.534375</v>
+      </c>
+      <c r="D161" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C161)</f>
-        <v>0.197099084294312</v>
+        <v>0.0862722468588068</v>
       </c>
       <c r="E161" s="16" t="n">
-        <v>0.000879999999999992</v>
+        <v>0.000479999999999994</v>
       </c>
       <c r="F161" s="16" t="n">
         <v>0.00343999999999998</v>
@@ -18136,20 +19004,20 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="59" t="n">
+      <c r="B162" s="64" t="n">
         <f aca="false">$B161+1</f>
-        <v>94</v>
-      </c>
-      <c r="C162" s="58" t="n">
-        <f aca="false">(B162-0.5)/$B$228</f>
-        <v>0.584375</v>
-      </c>
-      <c r="D162" s="58" t="n">
+        <v>87</v>
+      </c>
+      <c r="C162" s="63" t="n">
+        <f aca="false">(B162-0.5)/$B$235</f>
+        <v>0.540625</v>
+      </c>
+      <c r="D162" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C162)</f>
-        <v>0.213098672572898</v>
+        <v>0.102008409615026</v>
       </c>
       <c r="E162" s="16" t="n">
-        <v>0.000879999999999992</v>
+        <v>0.000560000000000005</v>
       </c>
       <c r="F162" s="16" t="n">
         <v>0.00343999999999998</v>
@@ -18160,7 +19028,7 @@
       <c r="Y162" s="16" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="AX162" s="60" t="s">
+      <c r="AX162" s="65" t="s">
         <v>22</v>
       </c>
       <c r="AY162" s="39" t="n">
@@ -18190,7 +19058,7 @@
       <c r="BG162" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="BH162" s="61" t="n">
+      <c r="BH162" s="66" t="n">
         <v>0.0696</v>
       </c>
       <c r="BI162" s="22" t="s">
@@ -18198,20 +19066,20 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="59" t="n">
+      <c r="B163" s="64" t="n">
         <f aca="false">$B162+1</f>
-        <v>95</v>
-      </c>
-      <c r="C163" s="58" t="n">
-        <f aca="false">(B163-0.5)/$B$228</f>
-        <v>0.590625</v>
-      </c>
-      <c r="D163" s="58" t="n">
+        <v>88</v>
+      </c>
+      <c r="C163" s="63" t="n">
+        <f aca="false">(B163-0.5)/$B$235</f>
+        <v>0.546875</v>
+      </c>
+      <c r="D163" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C163)</f>
-        <v>0.229153001510235</v>
+        <v>0.117769874579095</v>
       </c>
       <c r="E163" s="16" t="n">
-        <v>0.00104</v>
+        <v>0.000719999999999998</v>
       </c>
       <c r="F163" s="16" t="n">
         <v>0.00352</v>
@@ -18224,75 +19092,76 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="59" t="n">
+      <c r="B164" s="64" t="n">
         <f aca="false">$B163+1</f>
-        <v>96</v>
-      </c>
-      <c r="C164" s="58" t="n">
-        <f aca="false">(B164-0.5)/$B$228</f>
-        <v>0.596875</v>
-      </c>
-      <c r="D164" s="58" t="n">
+        <v>89</v>
+      </c>
+      <c r="C164" s="63" t="n">
+        <f aca="false">(B164-0.5)/$B$235</f>
+        <v>0.553125</v>
+      </c>
+      <c r="D164" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C164)</f>
-        <v>0.245266614682556</v>
+        <v>0.133560652624314</v>
       </c>
       <c r="E164" s="16" t="n">
-        <v>0.00112000000000001</v>
+        <v>0.000719999999999998</v>
       </c>
       <c r="F164" s="16" t="n">
-        <v>0.000719999999999998</v>
+        <v>0.000399999999999998</v>
       </c>
       <c r="X164" s="16" t="n">
         <v>0.06728</v>
       </c>
-      <c r="Y164" s="16" t="n">
+      <c r="Y164" s="39" t="n">
         <v>0.000719999999999998</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="59" t="n">
+      <c r="B165" s="64" t="n">
         <f aca="false">$B164+1</f>
-        <v>97</v>
-      </c>
-      <c r="C165" s="58" t="n">
-        <f aca="false">(B165-0.5)/$B$228</f>
-        <v>0.603125</v>
-      </c>
-      <c r="D165" s="58" t="n">
+        <v>90</v>
+      </c>
+      <c r="C165" s="63" t="n">
+        <f aca="false">(B165-0.5)/$B$235</f>
+        <v>0.559375</v>
+      </c>
+      <c r="D165" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C165)</f>
-        <v>0.26144416792067</v>
+        <v>0.149384806328247</v>
       </c>
       <c r="E165" s="16" t="n">
-        <v>0.0012</v>
+        <v>0.000719999999999998</v>
       </c>
       <c r="F165" s="16" t="n">
-        <v>0.00472000000000002</v>
+        <v>0.000399999999999998</v>
       </c>
       <c r="X165" s="16" t="n">
         <v>0.09888</v>
       </c>
-      <c r="Y165" s="16" t="n">
+      <c r="Y165" s="12" t="n">
         <v>0.00472000000000002</v>
       </c>
+      <c r="Z165" s="40"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="59" t="n">
+      <c r="B166" s="64" t="n">
         <f aca="false">$B165+1</f>
-        <v>98</v>
-      </c>
-      <c r="C166" s="58" t="n">
-        <f aca="false">(B166-0.5)/$B$228</f>
-        <v>0.609375</v>
-      </c>
-      <c r="D166" s="58" t="n">
+        <v>91</v>
+      </c>
+      <c r="C166" s="63" t="n">
+        <f aca="false">(B166-0.5)/$B$235</f>
+        <v>0.565625</v>
+      </c>
+      <c r="D166" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C166)</f>
-        <v>0.277690439821577</v>
+        <v>0.165246457571777</v>
       </c>
       <c r="E166" s="16" t="n">
-        <v>0.00136</v>
+        <v>0.000719999999999998</v>
       </c>
       <c r="F166" s="16" t="n">
-        <v>0.00504</v>
+        <v>-0.0104</v>
       </c>
       <c r="X166" s="16" t="n">
         <v>0.09856</v>
@@ -18300,25 +19169,26 @@
       <c r="Y166" s="16" t="n">
         <v>0.00504</v>
       </c>
+      <c r="Z166" s="40"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="59" t="n">
+      <c r="B167" s="64" t="n">
         <f aca="false">$B166+1</f>
-        <v>99</v>
-      </c>
-      <c r="C167" s="58" t="n">
-        <f aca="false">(B167-0.5)/$B$228</f>
-        <v>0.615625</v>
-      </c>
-      <c r="D167" s="58" t="n">
+        <v>92</v>
+      </c>
+      <c r="C167" s="63" t="n">
+        <f aca="false">(B167-0.5)/$B$235</f>
+        <v>0.571875</v>
+      </c>
+      <c r="D167" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C167)</f>
-        <v>0.294010342900415</v>
+        <v>0.181149795415536</v>
       </c>
       <c r="E167" s="16" t="n">
-        <v>0.00144</v>
+        <v>0.000800000000000009</v>
       </c>
       <c r="F167" s="16" t="n">
-        <v>0.00952</v>
+        <v>-0.0112</v>
       </c>
       <c r="X167" s="16" t="n">
         <v>0.08928</v>
@@ -18326,25 +19196,26 @@
       <c r="Y167" s="16" t="n">
         <v>0.00952</v>
       </c>
+      <c r="Z167" s="40"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="59" t="n">
+      <c r="B168" s="64" t="n">
         <f aca="false">$B167+1</f>
-        <v>100</v>
-      </c>
-      <c r="C168" s="58" t="n">
-        <f aca="false">(B168-0.5)/$B$228</f>
-        <v>0.621875</v>
-      </c>
-      <c r="D168" s="58" t="n">
+        <v>93</v>
+      </c>
+      <c r="C168" s="63" t="n">
+        <f aca="false">(B168-0.5)/$B$235</f>
+        <v>0.578125</v>
+      </c>
+      <c r="D168" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C168)</f>
-        <v>0.310408935455323</v>
+        <v>0.197099084294312</v>
       </c>
       <c r="E168" s="16" t="n">
-        <v>0.00144</v>
+        <v>0.000879999999999992</v>
       </c>
       <c r="F168" s="16" t="n">
-        <v>0.01088</v>
+        <v>0.00343999999999998</v>
       </c>
       <c r="X168" s="16" t="n">
         <v>0.08272</v>
@@ -18352,25 +19223,26 @@
       <c r="Y168" s="16" t="n">
         <v>0.01088</v>
       </c>
+      <c r="Z168" s="40"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="59" t="n">
+      <c r="B169" s="64" t="n">
         <f aca="false">$B168+1</f>
-        <v>101</v>
-      </c>
-      <c r="C169" s="58" t="n">
-        <f aca="false">(B169-0.5)/$B$228</f>
-        <v>0.628125</v>
-      </c>
-      <c r="D169" s="58" t="n">
+        <v>94</v>
+      </c>
+      <c r="C169" s="63" t="n">
+        <f aca="false">(B169-0.5)/$B$235</f>
+        <v>0.584375</v>
+      </c>
+      <c r="D169" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C169)</f>
-        <v>0.326891434225336</v>
+        <v>0.213098672572898</v>
       </c>
       <c r="E169" s="16" t="n">
-        <v>0.00144</v>
+        <v>0.000879999999999992</v>
       </c>
       <c r="F169" s="16" t="n">
-        <v>-0.00128</v>
+        <v>0.00343999999999998</v>
       </c>
       <c r="X169" s="16" t="n">
         <v>0.06768</v>
@@ -18378,25 +19250,26 @@
       <c r="Y169" s="16" t="n">
         <v>-0.00128</v>
       </c>
+      <c r="Z169" s="40"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="59" t="n">
+      <c r="B170" s="64" t="n">
         <f aca="false">$B169+1</f>
-        <v>102</v>
-      </c>
-      <c r="C170" s="58" t="n">
-        <f aca="false">(B170-0.5)/$B$228</f>
-        <v>0.634375</v>
-      </c>
-      <c r="D170" s="58" t="n">
+        <v>95</v>
+      </c>
+      <c r="C170" s="63" t="n">
+        <f aca="false">(B170-0.5)/$B$235</f>
+        <v>0.590625</v>
+      </c>
+      <c r="D170" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C170)</f>
-        <v>0.343463227930046</v>
+        <v>0.229153001510235</v>
       </c>
       <c r="E170" s="16" t="n">
-        <v>0.00144</v>
+        <v>0.00104</v>
       </c>
       <c r="F170" s="16" t="n">
-        <v>-0.00128</v>
+        <v>0.00352</v>
       </c>
       <c r="X170" s="16" t="n">
         <v>0.06768</v>
@@ -18404,25 +19277,26 @@
       <c r="Y170" s="16" t="n">
         <v>-0.00128</v>
       </c>
+      <c r="Z170" s="40"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="59" t="n">
+      <c r="B171" s="64" t="n">
         <f aca="false">$B170+1</f>
-        <v>103</v>
-      </c>
-      <c r="C171" s="58" t="n">
-        <f aca="false">(B171-0.5)/$B$228</f>
-        <v>0.640625</v>
-      </c>
-      <c r="D171" s="58" t="n">
+        <v>96</v>
+      </c>
+      <c r="C171" s="63" t="n">
+        <f aca="false">(B171-0.5)/$B$235</f>
+        <v>0.596875</v>
+      </c>
+      <c r="D171" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C171)</f>
-        <v>0.360129891789569</v>
+        <v>0.245266614682556</v>
       </c>
       <c r="E171" s="16" t="n">
-        <v>0.00144</v>
+        <v>0.00112000000000001</v>
       </c>
       <c r="F171" s="16" t="n">
-        <v>-0.000640000000000002</v>
+        <v>0.000719999999999998</v>
       </c>
       <c r="X171" s="16" t="n">
         <v>0.06664</v>
@@ -18430,25 +19304,26 @@
       <c r="Y171" s="16" t="n">
         <v>-0.000640000000000002</v>
       </c>
+      <c r="Z171" s="40"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="59" t="n">
+      <c r="B172" s="64" t="n">
         <f aca="false">$B171+1</f>
-        <v>104</v>
-      </c>
-      <c r="C172" s="58" t="n">
-        <f aca="false">(B172-0.5)/$B$228</f>
-        <v>0.646875</v>
-      </c>
-      <c r="D172" s="58" t="n">
+        <v>97</v>
+      </c>
+      <c r="C172" s="63" t="n">
+        <f aca="false">(B172-0.5)/$B$235</f>
+        <v>0.603125</v>
+      </c>
+      <c r="D172" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C172)</f>
-        <v>0.376897203134596</v>
+        <v>0.26144416792067</v>
       </c>
       <c r="E172" s="16" t="n">
-        <v>0.00144000000000001</v>
+        <v>0.0012</v>
       </c>
       <c r="F172" s="16" t="n">
-        <v>0.000560000000000005</v>
+        <v>0.00472000000000002</v>
       </c>
       <c r="X172" s="16" t="n">
         <v>0.06544</v>
@@ -18456,25 +19331,26 @@
       <c r="Y172" s="16" t="n">
         <v>0.000560000000000005</v>
       </c>
+      <c r="Z172" s="40"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="59" t="n">
+      <c r="B173" s="64" t="n">
         <f aca="false">$B172+1</f>
-        <v>105</v>
-      </c>
-      <c r="C173" s="58" t="n">
-        <f aca="false">(B173-0.5)/$B$228</f>
-        <v>0.653125</v>
-      </c>
-      <c r="D173" s="58" t="n">
+        <v>98</v>
+      </c>
+      <c r="C173" s="63" t="n">
+        <f aca="false">(B173-0.5)/$B$235</f>
+        <v>0.609375</v>
+      </c>
+      <c r="D173" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C173)</f>
-        <v>0.393771158229159</v>
+        <v>0.277690439821577</v>
       </c>
       <c r="E173" s="16" t="n">
-        <v>0.00152000000000001</v>
+        <v>0.00136</v>
       </c>
       <c r="F173" s="16" t="n">
-        <v>0.00568</v>
+        <v>0.00504</v>
       </c>
       <c r="X173" s="16" t="n">
         <v>0.09592</v>
@@ -18482,25 +19358,26 @@
       <c r="Y173" s="16" t="n">
         <v>0.00568</v>
       </c>
+      <c r="Z173" s="40"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="59" t="n">
+      <c r="B174" s="64" t="n">
         <f aca="false">$B173+1</f>
-        <v>106</v>
-      </c>
-      <c r="C174" s="58" t="n">
-        <f aca="false">(B174-0.5)/$B$228</f>
-        <v>0.659375</v>
-      </c>
-      <c r="D174" s="58" t="n">
+        <v>99</v>
+      </c>
+      <c r="C174" s="63" t="n">
+        <f aca="false">(B174-0.5)/$B$235</f>
+        <v>0.615625</v>
+      </c>
+      <c r="D174" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C174)</f>
-        <v>0.410757990443504</v>
+        <v>0.294010342900415</v>
       </c>
       <c r="E174" s="16" t="n">
-        <v>0.00152000000000001</v>
+        <v>0.00144</v>
       </c>
       <c r="F174" s="16" t="n">
-        <v>0.00608</v>
+        <v>0.00952</v>
       </c>
       <c r="X174" s="16" t="n">
         <v>0.09552</v>
@@ -18508,25 +19385,26 @@
       <c r="Y174" s="16" t="n">
         <v>0.00608</v>
       </c>
+      <c r="Z174" s="40"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="59" t="n">
+      <c r="B175" s="64" t="n">
         <f aca="false">$B174+1</f>
-        <v>107</v>
-      </c>
-      <c r="C175" s="58" t="n">
-        <f aca="false">(B175-0.5)/$B$228</f>
-        <v>0.665625</v>
-      </c>
-      <c r="D175" s="58" t="n">
+        <v>100</v>
+      </c>
+      <c r="C175" s="63" t="n">
+        <f aca="false">(B175-0.5)/$B$235</f>
+        <v>0.621875</v>
+      </c>
+      <c r="D175" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C175)</f>
-        <v>0.427864189931375</v>
+        <v>0.310408935455323</v>
       </c>
       <c r="E175" s="16" t="n">
-        <v>0.00167999999999999</v>
+        <v>0.00144</v>
       </c>
       <c r="F175" s="16" t="n">
-        <v>0.01168</v>
+        <v>0.01088</v>
       </c>
       <c r="X175" s="16" t="n">
         <v>0.07392</v>
@@ -18534,25 +19412,26 @@
       <c r="Y175" s="16" t="n">
         <v>0.01168</v>
       </c>
+      <c r="Z175" s="40"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="59" t="n">
+      <c r="B176" s="64" t="n">
         <f aca="false">$B175+1</f>
-        <v>108</v>
-      </c>
-      <c r="C176" s="58" t="n">
-        <f aca="false">(B176-0.5)/$B$228</f>
-        <v>0.671875</v>
-      </c>
-      <c r="D176" s="58" t="n">
+        <v>101</v>
+      </c>
+      <c r="C176" s="63" t="n">
+        <f aca="false">(B176-0.5)/$B$235</f>
+        <v>0.628125</v>
+      </c>
+      <c r="D176" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C176)</f>
-        <v>0.445096524985516</v>
+        <v>0.326891434225336</v>
       </c>
       <c r="E176" s="16" t="n">
-        <v>0.00168</v>
+        <v>0.00144</v>
       </c>
       <c r="F176" s="16" t="n">
-        <v>0.01088</v>
+        <v>-0.00128</v>
       </c>
       <c r="X176" s="16" t="n">
         <v>0.06832</v>
@@ -18560,25 +19439,26 @@
       <c r="Y176" s="16" t="n">
         <v>0.01088</v>
       </c>
+      <c r="Z176" s="40"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="59" t="n">
+      <c r="B177" s="64" t="n">
         <f aca="false">$B176+1</f>
-        <v>109</v>
-      </c>
-      <c r="C177" s="58" t="n">
-        <f aca="false">(B177-0.5)/$B$228</f>
-        <v>0.678125</v>
-      </c>
-      <c r="D177" s="58" t="n">
+        <v>102</v>
+      </c>
+      <c r="C177" s="63" t="n">
+        <f aca="false">(B177-0.5)/$B$235</f>
+        <v>0.634375</v>
+      </c>
+      <c r="D177" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C177)</f>
-        <v>0.462462065267687</v>
+        <v>0.343463227930046</v>
       </c>
       <c r="E177" s="16" t="n">
-        <v>0.00168</v>
+        <v>0.00144</v>
       </c>
       <c r="F177" s="16" t="n">
-        <v>-0.00135999999999999</v>
+        <v>-0.00128</v>
       </c>
       <c r="X177" s="16" t="n">
         <v>0.06696</v>
@@ -18586,25 +19466,26 @@
       <c r="Y177" s="16" t="n">
         <v>-0.00135999999999999</v>
       </c>
+      <c r="Z177" s="40"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="59" t="n">
+      <c r="B178" s="64" t="n">
         <f aca="false">$B177+1</f>
-        <v>110</v>
-      </c>
-      <c r="C178" s="58" t="n">
-        <f aca="false">(B178-0.5)/$B$228</f>
-        <v>0.684375</v>
-      </c>
-      <c r="D178" s="58" t="n">
+        <v>103</v>
+      </c>
+      <c r="C178" s="63" t="n">
+        <f aca="false">(B178-0.5)/$B$235</f>
+        <v>0.640625</v>
+      </c>
+      <c r="D178" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C178)</f>
-        <v>0.479968207135425</v>
+        <v>0.360129891789569</v>
       </c>
       <c r="E178" s="16" t="n">
-        <v>0.00176000000000001</v>
+        <v>0.00144</v>
       </c>
       <c r="F178" s="16" t="n">
-        <v>-0.00112</v>
+        <v>-0.000640000000000002</v>
       </c>
       <c r="X178" s="16" t="n">
         <v>0.06672</v>
@@ -18612,25 +19493,26 @@
       <c r="Y178" s="16" t="n">
         <v>-0.00112</v>
       </c>
+      <c r="Z178" s="40"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="59" t="n">
+      <c r="B179" s="64" t="n">
         <f aca="false">$B178+1</f>
-        <v>111</v>
-      </c>
-      <c r="C179" s="58" t="n">
-        <f aca="false">(B179-0.5)/$B$228</f>
-        <v>0.690625</v>
-      </c>
-      <c r="D179" s="58" t="n">
+        <v>104</v>
+      </c>
+      <c r="C179" s="63" t="n">
+        <f aca="false">(B179-0.5)/$B$235</f>
+        <v>0.646875</v>
+      </c>
+      <c r="D179" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C179)</f>
-        <v>0.497622701317952</v>
+        <v>0.376897203134596</v>
       </c>
       <c r="E179" s="16" t="n">
-        <v>0.00192000000000001</v>
+        <v>0.00144000000000001</v>
       </c>
       <c r="F179" s="16" t="n">
-        <v>0.004</v>
+        <v>0.000560000000000005</v>
       </c>
       <c r="X179" s="16" t="n">
         <v>0.0616</v>
@@ -18638,25 +19520,26 @@
       <c r="Y179" s="16" t="n">
         <v>0.004</v>
       </c>
+      <c r="Z179" s="40"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="59" t="n">
+      <c r="B180" s="64" t="n">
         <f aca="false">$B179+1</f>
-        <v>112</v>
-      </c>
-      <c r="C180" s="58" t="n">
-        <f aca="false">(B180-0.5)/$B$228</f>
-        <v>0.696875</v>
-      </c>
-      <c r="D180" s="58" t="n">
+        <v>105</v>
+      </c>
+      <c r="C180" s="63" t="n">
+        <f aca="false">(B180-0.5)/$B$235</f>
+        <v>0.653125</v>
+      </c>
+      <c r="D180" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C180)</f>
-        <v>0.515433683228519</v>
+        <v>0.393771158229159</v>
       </c>
       <c r="E180" s="16" t="n">
-        <v>0.00192000000000001</v>
+        <v>0.00152000000000001</v>
       </c>
       <c r="F180" s="16" t="n">
-        <v>0.00576</v>
+        <v>0.00568</v>
       </c>
       <c r="X180" s="16" t="n">
         <v>0.05984</v>
@@ -18664,25 +19547,26 @@
       <c r="Y180" s="16" t="n">
         <v>0.00576</v>
       </c>
+      <c r="Z180" s="40"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="59" t="n">
+      <c r="B181" s="64" t="n">
         <f aca="false">$B180+1</f>
-        <v>113</v>
-      </c>
-      <c r="C181" s="58" t="n">
-        <f aca="false">(B181-0.5)/$B$228</f>
-        <v>0.703125</v>
-      </c>
-      <c r="D181" s="58" t="n">
+        <v>106</v>
+      </c>
+      <c r="C181" s="63" t="n">
+        <f aca="false">(B181-0.5)/$B$235</f>
+        <v>0.659375</v>
+      </c>
+      <c r="D181" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C181)</f>
-        <v>0.53340970624128</v>
+        <v>0.410757990443504</v>
       </c>
       <c r="E181" s="16" t="n">
-        <v>0.00192000000000001</v>
+        <v>0.00152000000000001</v>
       </c>
       <c r="F181" s="16" t="n">
-        <v>0.00520000000000001</v>
+        <v>0.00608</v>
       </c>
       <c r="X181" s="16" t="n">
         <v>0.1012</v>
@@ -18690,25 +19574,26 @@
       <c r="Y181" s="16" t="n">
         <v>0.00520000000000001</v>
       </c>
+      <c r="Z181" s="40"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="59" t="n">
+      <c r="B182" s="64" t="n">
         <f aca="false">$B181+1</f>
-        <v>114</v>
-      </c>
-      <c r="C182" s="58" t="n">
-        <f aca="false">(B182-0.5)/$B$228</f>
-        <v>0.709375</v>
-      </c>
-      <c r="D182" s="58" t="n">
+        <v>107</v>
+      </c>
+      <c r="C182" s="63" t="n">
+        <f aca="false">(B182-0.5)/$B$235</f>
+        <v>0.665625</v>
+      </c>
+      <c r="D182" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C182)</f>
-        <v>0.551559778308309</v>
+        <v>0.427864189931375</v>
       </c>
       <c r="E182" s="16" t="n">
-        <v>0.00192000000000001</v>
+        <v>0.00167999999999999</v>
       </c>
       <c r="F182" s="16" t="n">
-        <v>0.00527999999999999</v>
+        <v>0.01168</v>
       </c>
       <c r="X182" s="16" t="n">
         <v>0.10112</v>
@@ -18716,25 +19601,26 @@
       <c r="Y182" s="16" t="n">
         <v>0.00527999999999999</v>
       </c>
+      <c r="Z182" s="40"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="59" t="n">
+      <c r="B183" s="64" t="n">
         <f aca="false">$B182+1</f>
-        <v>115</v>
-      </c>
-      <c r="C183" s="58" t="n">
-        <f aca="false">(B183-0.5)/$B$228</f>
-        <v>0.715625</v>
-      </c>
-      <c r="D183" s="58" t="n">
+        <v>108</v>
+      </c>
+      <c r="C183" s="63" t="n">
+        <f aca="false">(B183-0.5)/$B$235</f>
+        <v>0.671875</v>
+      </c>
+      <c r="D183" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C183)</f>
-        <v>0.569893402348136</v>
+        <v>0.445096524985516</v>
       </c>
       <c r="E183" s="16" t="n">
-        <v>0.002</v>
+        <v>0.00168</v>
       </c>
       <c r="F183" s="16" t="n">
-        <v>0.00480000000000001</v>
+        <v>0.01088</v>
       </c>
       <c r="X183" s="16" t="n">
         <v>0.0956</v>
@@ -18742,25 +19628,26 @@
       <c r="Y183" s="16" t="n">
         <v>0.00480000000000001</v>
       </c>
+      <c r="Z183" s="40"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="59" t="n">
+      <c r="B184" s="64" t="n">
         <f aca="false">$B183+1</f>
-        <v>116</v>
-      </c>
-      <c r="C184" s="58" t="n">
-        <f aca="false">(B184-0.5)/$B$228</f>
-        <v>0.721875</v>
-      </c>
-      <c r="D184" s="58" t="n">
+        <v>109</v>
+      </c>
+      <c r="C184" s="63" t="n">
+        <f aca="false">(B184-0.5)/$B$235</f>
+        <v>0.678125</v>
+      </c>
+      <c r="D184" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C184)</f>
-        <v>0.588420620902715</v>
+        <v>0.462462065267687</v>
       </c>
       <c r="E184" s="16" t="n">
-        <v>0.00200000000000002</v>
+        <v>0.00168</v>
       </c>
       <c r="F184" s="16" t="n">
-        <v>0.0052</v>
+        <v>-0.00135999999999999</v>
       </c>
       <c r="X184" s="16" t="n">
         <v>0.0924</v>
@@ -18768,25 +19655,26 @@
       <c r="Y184" s="16" t="n">
         <v>0.0052</v>
       </c>
+      <c r="Z184" s="40"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="59" t="n">
+      <c r="B185" s="64" t="n">
         <f aca="false">$B184+1</f>
-        <v>117</v>
-      </c>
-      <c r="C185" s="58" t="n">
-        <f aca="false">(B185-0.5)/$B$228</f>
-        <v>0.728125</v>
-      </c>
-      <c r="D185" s="58" t="n">
+        <v>110</v>
+      </c>
+      <c r="C185" s="63" t="n">
+        <f aca="false">(B185-0.5)/$B$235</f>
+        <v>0.684375</v>
+      </c>
+      <c r="D185" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C185)</f>
-        <v>0.607152065636956</v>
+        <v>0.479968207135425</v>
       </c>
       <c r="E185" s="16" t="n">
-        <v>0.00208</v>
+        <v>0.00176000000000001</v>
       </c>
       <c r="F185" s="16" t="n">
-        <v>-0.00136000000000001</v>
+        <v>-0.00112</v>
       </c>
       <c r="X185" s="16" t="n">
         <v>0.06816</v>
@@ -18794,25 +19682,26 @@
       <c r="Y185" s="16" t="n">
         <v>-0.00136000000000001</v>
       </c>
+      <c r="Z185" s="40"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="59" t="n">
+      <c r="B186" s="64" t="n">
         <f aca="false">$B185+1</f>
-        <v>118</v>
-      </c>
-      <c r="C186" s="58" t="n">
-        <f aca="false">(B186-0.5)/$B$228</f>
-        <v>0.734375</v>
-      </c>
-      <c r="D186" s="58" t="n">
+        <v>111</v>
+      </c>
+      <c r="C186" s="63" t="n">
+        <f aca="false">(B186-0.5)/$B$235</f>
+        <v>0.690625</v>
+      </c>
+      <c r="D186" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C186)</f>
-        <v>0.626099012346421</v>
+        <v>0.497622701317952</v>
       </c>
       <c r="E186" s="16" t="n">
-        <v>0.00216</v>
+        <v>0.00192000000000001</v>
       </c>
       <c r="F186" s="16" t="n">
-        <v>-0.00136000000000001</v>
+        <v>0.004</v>
       </c>
       <c r="X186" s="16" t="n">
         <v>0.06816</v>
@@ -18820,25 +19709,26 @@
       <c r="Y186" s="16" t="n">
         <v>-0.00136000000000001</v>
       </c>
+      <c r="Z186" s="40"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="59" t="n">
+      <c r="B187" s="64" t="n">
         <f aca="false">$B186+1</f>
-        <v>119</v>
-      </c>
-      <c r="C187" s="58" t="n">
-        <f aca="false">(B187-0.5)/$B$228</f>
-        <v>0.740625</v>
-      </c>
-      <c r="D187" s="58" t="n">
+        <v>112</v>
+      </c>
+      <c r="C187" s="63" t="n">
+        <f aca="false">(B187-0.5)/$B$235</f>
+        <v>0.696875</v>
+      </c>
+      <c r="D187" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C187)</f>
-        <v>0.645273442247319</v>
+        <v>0.515433683228519</v>
       </c>
       <c r="E187" s="16" t="n">
-        <v>0.00224000000000001</v>
+        <v>0.00192000000000001</v>
       </c>
       <c r="F187" s="16" t="n">
-        <v>-0.00136000000000001</v>
+        <v>0.00576</v>
       </c>
       <c r="X187" s="16" t="n">
         <v>0.06816</v>
@@ -18846,25 +19736,26 @@
       <c r="Y187" s="16" t="n">
         <v>-0.00136000000000001</v>
       </c>
+      <c r="Z187" s="40"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="59" t="n">
+      <c r="B188" s="64" t="n">
         <f aca="false">$B187+1</f>
-        <v>120</v>
-      </c>
-      <c r="C188" s="58" t="n">
-        <f aca="false">(B188-0.5)/$B$228</f>
-        <v>0.746875</v>
-      </c>
-      <c r="D188" s="58" t="n">
+        <v>113</v>
+      </c>
+      <c r="C188" s="63" t="n">
+        <f aca="false">(B188-0.5)/$B$235</f>
+        <v>0.703125</v>
+      </c>
+      <c r="D188" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C188)</f>
-        <v>0.664688110452434</v>
+        <v>0.53340970624128</v>
       </c>
       <c r="E188" s="16" t="n">
-        <v>0.00232</v>
+        <v>0.00192000000000001</v>
       </c>
       <c r="F188" s="16" t="n">
-        <v>-0.00128</v>
+        <v>0.00520000000000001</v>
       </c>
       <c r="X188" s="16" t="n">
         <v>0.06808</v>
@@ -18872,25 +19763,26 @@
       <c r="Y188" s="16" t="n">
         <v>-0.00128</v>
       </c>
+      <c r="Z188" s="40"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="59" t="n">
+      <c r="B189" s="64" t="n">
         <f aca="false">$B188+1</f>
-        <v>121</v>
-      </c>
-      <c r="C189" s="58" t="n">
-        <f aca="false">(B189-0.5)/$B$228</f>
-        <v>0.753125</v>
-      </c>
-      <c r="D189" s="58" t="n">
+        <v>114</v>
+      </c>
+      <c r="C189" s="63" t="n">
+        <f aca="false">(B189-0.5)/$B$235</f>
+        <v>0.709375</v>
+      </c>
+      <c r="D189" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C189)</f>
-        <v>0.684356622691522</v>
+        <v>0.551559778308309</v>
       </c>
       <c r="E189" s="16" t="n">
-        <v>0.00239999999999999</v>
+        <v>0.00192000000000001</v>
       </c>
       <c r="F189" s="16" t="n">
-        <v>0.00560000000000001</v>
+        <v>0.00527999999999999</v>
       </c>
       <c r="X189" s="16" t="n">
         <v>0.1008</v>
@@ -18898,25 +19790,26 @@
       <c r="Y189" s="16" t="n">
         <v>0.00560000000000001</v>
       </c>
+      <c r="Z189" s="40"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="59" t="n">
+      <c r="B190" s="64" t="n">
         <f aca="false">$B189+1</f>
-        <v>122</v>
-      </c>
-      <c r="C190" s="58" t="n">
-        <f aca="false">(B190-0.5)/$B$228</f>
-        <v>0.759375</v>
-      </c>
-      <c r="D190" s="58" t="n">
+        <v>115</v>
+      </c>
+      <c r="C190" s="63" t="n">
+        <f aca="false">(B190-0.5)/$B$235</f>
+        <v>0.715625</v>
+      </c>
+      <c r="D190" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C190)</f>
-        <v>0.704293521520969</v>
+        <v>0.569893402348136</v>
       </c>
       <c r="E190" s="16" t="n">
-        <v>0.00239999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="F190" s="16" t="n">
-        <v>0.00560000000000001</v>
+        <v>0.00480000000000001</v>
       </c>
       <c r="X190" s="16" t="n">
         <v>0.1008</v>
@@ -18924,25 +19817,26 @@
       <c r="Y190" s="16" t="n">
         <v>0.00560000000000001</v>
       </c>
+      <c r="Z190" s="40"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="59" t="n">
+      <c r="B191" s="64" t="n">
         <f aca="false">$B190+1</f>
-        <v>123</v>
-      </c>
-      <c r="C191" s="58" t="n">
-        <f aca="false">(B191-0.5)/$B$228</f>
-        <v>0.765625</v>
-      </c>
-      <c r="D191" s="58" t="n">
+        <v>116</v>
+      </c>
+      <c r="C191" s="63" t="n">
+        <f aca="false">(B191-0.5)/$B$235</f>
+        <v>0.721875</v>
+      </c>
+      <c r="D191" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C191)</f>
-        <v>0.724514383492365</v>
+        <v>0.588420620902715</v>
       </c>
       <c r="E191" s="16" t="n">
-        <v>0.00248</v>
+        <v>0.00200000000000002</v>
       </c>
       <c r="F191" s="16" t="n">
-        <v>0.00800000000000001</v>
+        <v>0.0052</v>
       </c>
       <c r="X191" s="16" t="n">
         <v>0.0884</v>
@@ -18950,25 +19844,26 @@
       <c r="Y191" s="16" t="n">
         <v>0.00800000000000001</v>
       </c>
+      <c r="Z191" s="40"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="59" t="n">
+      <c r="B192" s="64" t="n">
         <f aca="false">$B191+1</f>
-        <v>124</v>
-      </c>
-      <c r="C192" s="58" t="n">
-        <f aca="false">(B192-0.5)/$B$228</f>
-        <v>0.771875</v>
-      </c>
-      <c r="D192" s="58" t="n">
+        <v>117</v>
+      </c>
+      <c r="C192" s="63" t="n">
+        <f aca="false">(B192-0.5)/$B$235</f>
+        <v>0.728125</v>
+      </c>
+      <c r="D192" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C192)</f>
-        <v>0.74503592902231</v>
+        <v>0.607152065636956</v>
       </c>
       <c r="E192" s="16" t="n">
-        <v>0.00296</v>
+        <v>0.00208</v>
       </c>
       <c r="F192" s="16" t="n">
-        <v>0.00879999999999999</v>
+        <v>-0.00136000000000001</v>
       </c>
       <c r="X192" s="16" t="n">
         <v>0.0828</v>
@@ -18976,22 +19871,23 @@
       <c r="Y192" s="16" t="n">
         <v>0.00879999999999999</v>
       </c>
+      <c r="Z192" s="40"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="59" t="n">
+      <c r="B193" s="64" t="n">
         <f aca="false">$B192+1</f>
-        <v>125</v>
-      </c>
-      <c r="C193" s="58" t="n">
-        <f aca="false">(B193-0.5)/$B$228</f>
-        <v>0.778125</v>
-      </c>
-      <c r="D193" s="58" t="n">
+        <v>118</v>
+      </c>
+      <c r="C193" s="63" t="n">
+        <f aca="false">(B193-0.5)/$B$235</f>
+        <v>0.734375</v>
+      </c>
+      <c r="D193" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C193)</f>
-        <v>0.765876147038185</v>
+        <v>0.626099012346421</v>
       </c>
       <c r="E193" s="16" t="n">
-        <v>0.00327999999999999</v>
+        <v>0.00216</v>
       </c>
       <c r="F193" s="16" t="n">
         <v>-0.00136000000000001</v>
@@ -19002,22 +19898,23 @@
       <c r="Y193" s="16" t="n">
         <v>-0.00136000000000001</v>
       </c>
+      <c r="Z193" s="40"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="59" t="n">
+      <c r="B194" s="64" t="n">
         <f aca="false">$B193+1</f>
-        <v>126</v>
-      </c>
-      <c r="C194" s="58" t="n">
-        <f aca="false">(B194-0.5)/$B$228</f>
-        <v>0.784375</v>
-      </c>
-      <c r="D194" s="58" t="n">
+        <v>119</v>
+      </c>
+      <c r="C194" s="63" t="n">
+        <f aca="false">(B194-0.5)/$B$235</f>
+        <v>0.740625</v>
+      </c>
+      <c r="D194" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C194)</f>
-        <v>0.787054436881757</v>
+        <v>0.645273442247319</v>
       </c>
       <c r="E194" s="16" t="n">
-        <v>0.00343999999999998</v>
+        <v>0.00224000000000001</v>
       </c>
       <c r="F194" s="16" t="n">
         <v>-0.00136000000000001</v>
@@ -19028,22 +19925,23 @@
       <c r="Y194" s="16" t="n">
         <v>-0.00136000000000001</v>
       </c>
+      <c r="Z194" s="40"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B195" s="59" t="n">
+      <c r="B195" s="64" t="n">
         <f aca="false">$B194+1</f>
-        <v>127</v>
-      </c>
-      <c r="C195" s="58" t="n">
-        <f aca="false">(B195-0.5)/$B$228</f>
-        <v>0.790625</v>
-      </c>
-      <c r="D195" s="58" t="n">
+        <v>120</v>
+      </c>
+      <c r="C195" s="63" t="n">
+        <f aca="false">(B195-0.5)/$B$235</f>
+        <v>0.746875</v>
+      </c>
+      <c r="D195" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C195)</f>
-        <v>0.808591770453963</v>
+        <v>0.664688110452434</v>
       </c>
       <c r="E195" s="16" t="n">
-        <v>0.00343999999999998</v>
+        <v>0.00232</v>
       </c>
       <c r="F195" s="16" t="n">
         <v>-0.00128</v>
@@ -19054,51 +19952,53 @@
       <c r="Y195" s="16" t="n">
         <v>-0.00128</v>
       </c>
+      <c r="Z195" s="40"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="59" t="n">
+      <c r="B196" s="64" t="n">
         <f aca="false">$B195+1</f>
-        <v>128</v>
-      </c>
-      <c r="C196" s="58" t="n">
-        <f aca="false">(B196-0.5)/$B$228</f>
-        <v>0.796875</v>
-      </c>
-      <c r="D196" s="58" t="n">
+        <v>121</v>
+      </c>
+      <c r="C196" s="63" t="n">
+        <f aca="false">(B196-0.5)/$B$235</f>
+        <v>0.753125</v>
+      </c>
+      <c r="D196" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C196)</f>
-        <v>0.830510878205399</v>
+        <v>0.684356622691522</v>
       </c>
       <c r="E196" s="16" t="n">
-        <v>0.00343999999999998</v>
+        <v>0.00239999999999999</v>
       </c>
       <c r="F196" s="16" t="n">
-        <v>-0.000480000000000008</v>
+        <v>0.00560000000000001</v>
       </c>
       <c r="X196" s="16" t="n">
         <v>0.06728</v>
       </c>
-      <c r="Y196" s="16" t="n">
+      <c r="Y196" s="39" t="n">
         <v>-0.000480000000000008</v>
       </c>
+      <c r="Z196" s="40"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="59" t="n">
+      <c r="B197" s="64" t="n">
         <f aca="false">$B196+1</f>
-        <v>129</v>
-      </c>
-      <c r="C197" s="58" t="n">
-        <f aca="false">(B197-0.5)/$B$228</f>
-        <v>0.803125</v>
-      </c>
-      <c r="D197" s="58" t="n">
+        <v>122</v>
+      </c>
+      <c r="C197" s="63" t="n">
+        <f aca="false">(B197-0.5)/$B$235</f>
+        <v>0.759375</v>
+      </c>
+      <c r="D197" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C197)</f>
-        <v>0.852836463351083</v>
+        <v>0.704293521520969</v>
       </c>
       <c r="E197" s="16" t="n">
-        <v>0.00343999999999998</v>
+        <v>0.00239999999999999</v>
       </c>
       <c r="F197" s="16" t="n">
-        <v>0.00112000000000001</v>
+        <v>0.00560000000000001</v>
       </c>
       <c r="X197" s="16" t="n">
         <v>0.09888</v>
@@ -19108,23 +20008,23 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="59" t="n">
+      <c r="B198" s="64" t="n">
         <f aca="false">$B197+1</f>
-        <v>130</v>
-      </c>
-      <c r="C198" s="58" t="n">
-        <f aca="false">(B198-0.5)/$B$228</f>
-        <v>0.809375</v>
-      </c>
-      <c r="D198" s="58" t="n">
+        <v>123</v>
+      </c>
+      <c r="C198" s="63" t="n">
+        <f aca="false">(B198-0.5)/$B$235</f>
+        <v>0.765625</v>
+      </c>
+      <c r="D198" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C198)</f>
-        <v>0.875595449658795</v>
+        <v>0.724514383492365</v>
       </c>
       <c r="E198" s="16" t="n">
-        <v>0.00343999999999998</v>
+        <v>0.00248</v>
       </c>
       <c r="F198" s="16" t="n">
-        <v>0.00104</v>
+        <v>0.00800000000000001</v>
       </c>
       <c r="X198" s="16" t="n">
         <v>0.09856</v>
@@ -19134,23 +20034,23 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="59" t="n">
+      <c r="B199" s="64" t="n">
         <f aca="false">$B198+1</f>
-        <v>131</v>
-      </c>
-      <c r="C199" s="58" t="n">
-        <f aca="false">(B199-0.5)/$B$228</f>
-        <v>0.815625</v>
-      </c>
-      <c r="D199" s="58" t="n">
+        <v>124</v>
+      </c>
+      <c r="C199" s="63" t="n">
+        <f aca="false">(B199-0.5)/$B$235</f>
+        <v>0.771875</v>
+      </c>
+      <c r="D199" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C199)</f>
-        <v>0.898817269385917</v>
+        <v>0.74503592902231</v>
       </c>
       <c r="E199" s="16" t="n">
-        <v>0.00352</v>
+        <v>0.00296</v>
       </c>
       <c r="F199" s="16" t="n">
-        <v>0.00352000000000001</v>
+        <v>0.00879999999999999</v>
       </c>
       <c r="X199" s="16" t="n">
         <v>0.08928</v>
@@ -19160,23 +20060,23 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="59" t="n">
+      <c r="B200" s="64" t="n">
         <f aca="false">$B199+1</f>
-        <v>132</v>
-      </c>
-      <c r="C200" s="58" t="n">
-        <f aca="false">(B200-0.5)/$B$228</f>
-        <v>0.821875</v>
-      </c>
-      <c r="D200" s="58" t="n">
+        <v>125</v>
+      </c>
+      <c r="C200" s="63" t="n">
+        <f aca="false">(B200-0.5)/$B$235</f>
+        <v>0.778125</v>
+      </c>
+      <c r="D200" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C200)</f>
-        <v>0.922534199498215</v>
+        <v>0.765876147038185</v>
       </c>
       <c r="E200" s="16" t="n">
-        <v>0.00352</v>
+        <v>0.00327999999999999</v>
       </c>
       <c r="F200" s="16" t="n">
-        <v>0.00448000000000001</v>
+        <v>-0.00136000000000001</v>
       </c>
       <c r="X200" s="16" t="n">
         <v>0.08272</v>
@@ -19186,23 +20086,23 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="59" t="n">
+      <c r="B201" s="64" t="n">
         <f aca="false">$B200+1</f>
-        <v>133</v>
-      </c>
-      <c r="C201" s="58" t="n">
-        <f aca="false">(B201-0.5)/$B$228</f>
-        <v>0.828125</v>
-      </c>
-      <c r="D201" s="58" t="n">
+        <v>126</v>
+      </c>
+      <c r="C201" s="63" t="n">
+        <f aca="false">(B201-0.5)/$B$235</f>
+        <v>0.784375</v>
+      </c>
+      <c r="D201" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C201)</f>
-        <v>0.946781756301045</v>
+        <v>0.787054436881757</v>
       </c>
       <c r="E201" s="16" t="n">
-        <v>0.00352000000000001</v>
+        <v>0.00343999999999998</v>
       </c>
       <c r="F201" s="16" t="n">
-        <v>0.00192000000000001</v>
+        <v>-0.00136000000000001</v>
       </c>
       <c r="X201" s="16" t="n">
         <v>0.06768</v>
@@ -19212,23 +20112,23 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="59" t="n">
+      <c r="B202" s="64" t="n">
         <f aca="false">$B201+1</f>
-        <v>134</v>
-      </c>
-      <c r="C202" s="58" t="n">
-        <f aca="false">(B202-0.5)/$B$228</f>
-        <v>0.834375</v>
-      </c>
-      <c r="D202" s="58" t="n">
+        <v>127</v>
+      </c>
+      <c r="C202" s="63" t="n">
+        <f aca="false">(B202-0.5)/$B$235</f>
+        <v>0.790625</v>
+      </c>
+      <c r="D202" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C202)</f>
-        <v>0.971599161193188</v>
+        <v>0.808591770453963</v>
       </c>
       <c r="E202" s="16" t="n">
-        <v>0.00368000000000002</v>
+        <v>0.00343999999999998</v>
       </c>
       <c r="F202" s="16" t="n">
-        <v>0.00192000000000001</v>
+        <v>-0.00128</v>
       </c>
       <c r="X202" s="16" t="n">
         <v>0.06768</v>
@@ -19238,23 +20138,23 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="59" t="n">
+      <c r="B203" s="64" t="n">
         <f aca="false">$B202+1</f>
-        <v>135</v>
-      </c>
-      <c r="C203" s="58" t="n">
-        <f aca="false">(B203-0.5)/$B$228</f>
-        <v>0.840625</v>
-      </c>
-      <c r="D203" s="58" t="n">
+        <v>128</v>
+      </c>
+      <c r="C203" s="63" t="n">
+        <f aca="false">(B203-0.5)/$B$235</f>
+        <v>0.796875</v>
+      </c>
+      <c r="D203" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C203)</f>
-        <v>0.997029893615006</v>
+        <v>0.830510878205399</v>
       </c>
       <c r="E203" s="16" t="n">
-        <v>0.00376</v>
+        <v>0.00343999999999998</v>
       </c>
       <c r="F203" s="16" t="n">
-        <v>0.00216</v>
+        <v>-0.000480000000000008</v>
       </c>
       <c r="X203" s="16" t="n">
         <v>0.06664</v>
@@ -19264,23 +20164,23 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="59" t="n">
+      <c r="B204" s="64" t="n">
         <f aca="false">$B203+1</f>
-        <v>136</v>
-      </c>
-      <c r="C204" s="58" t="n">
-        <f aca="false">(B204-0.5)/$B$228</f>
-        <v>0.846875</v>
-      </c>
-      <c r="D204" s="58" t="n">
+        <v>129</v>
+      </c>
+      <c r="C204" s="63" t="n">
+        <f aca="false">(B204-0.5)/$B$235</f>
+        <v>0.803125</v>
+      </c>
+      <c r="D204" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C204)</f>
-        <v>1.02312235168363</v>
+        <v>0.852836463351083</v>
       </c>
       <c r="E204" s="16" t="n">
-        <v>0.004</v>
+        <v>0.00343999999999998</v>
       </c>
       <c r="F204" s="16" t="n">
-        <v>0.00176000000000001</v>
+        <v>0.00112000000000001</v>
       </c>
       <c r="X204" s="16" t="n">
         <v>0.06544</v>
@@ -19290,23 +20190,23 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="59" t="n">
+      <c r="B205" s="64" t="n">
         <f aca="false">$B204+1</f>
-        <v>137</v>
-      </c>
-      <c r="C205" s="58" t="n">
-        <f aca="false">(B205-0.5)/$B$228</f>
-        <v>0.853125</v>
-      </c>
-      <c r="D205" s="58" t="n">
+        <v>130</v>
+      </c>
+      <c r="C205" s="63" t="n">
+        <f aca="false">(B205-0.5)/$B$235</f>
+        <v>0.809375</v>
+      </c>
+      <c r="D205" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C205)</f>
-        <v>1.04993064688034</v>
+        <v>0.875595449658795</v>
       </c>
       <c r="E205" s="16" t="n">
-        <v>0.00448000000000001</v>
+        <v>0.00343999999999998</v>
       </c>
       <c r="F205" s="16" t="n">
-        <v>-0.00272</v>
+        <v>0.00104</v>
       </c>
       <c r="X205" s="16" t="n">
         <v>0.09592</v>
@@ -19316,23 +20216,23 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B206" s="59" t="n">
+      <c r="B206" s="64" t="n">
         <f aca="false">$B205+1</f>
-        <v>138</v>
-      </c>
-      <c r="C206" s="58" t="n">
-        <f aca="false">(B206-0.5)/$B$228</f>
-        <v>0.859375</v>
-      </c>
-      <c r="D206" s="58" t="n">
+        <v>131</v>
+      </c>
+      <c r="C206" s="63" t="n">
+        <f aca="false">(B206-0.5)/$B$235</f>
+        <v>0.815625</v>
+      </c>
+      <c r="D206" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C206)</f>
-        <v>1.07751556704028</v>
+        <v>0.898817269385917</v>
       </c>
       <c r="E206" s="16" t="n">
-        <v>0.00472</v>
+        <v>0.00352</v>
       </c>
       <c r="F206" s="16" t="n">
-        <v>-0.00232</v>
+        <v>0.00352000000000001</v>
       </c>
       <c r="X206" s="16" t="n">
         <v>0.09552</v>
@@ -19342,23 +20242,23 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B207" s="59" t="n">
+      <c r="B207" s="64" t="n">
         <f aca="false">$B206+1</f>
-        <v>139</v>
-      </c>
-      <c r="C207" s="58" t="n">
-        <f aca="false">(B207-0.5)/$B$228</f>
-        <v>0.865625</v>
-      </c>
-      <c r="D207" s="58" t="n">
+        <v>132</v>
+      </c>
+      <c r="C207" s="63" t="n">
+        <f aca="false">(B207-0.5)/$B$235</f>
+        <v>0.821875</v>
+      </c>
+      <c r="D207" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C207)</f>
-        <v>1.10594575260395</v>
+        <v>0.922534199498215</v>
       </c>
       <c r="E207" s="16" t="n">
-        <v>0.00472000000000002</v>
+        <v>0.00352</v>
       </c>
       <c r="F207" s="16" t="n">
-        <v>0.00248</v>
+        <v>0.00448000000000001</v>
       </c>
       <c r="X207" s="16" t="n">
         <v>0.07392</v>
@@ -19368,23 +20268,23 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B208" s="59" t="n">
+      <c r="B208" s="64" t="n">
         <f aca="false">$B207+1</f>
-        <v>140</v>
-      </c>
-      <c r="C208" s="58" t="n">
-        <f aca="false">(B208-0.5)/$B$228</f>
-        <v>0.871875</v>
-      </c>
-      <c r="D208" s="58" t="n">
+        <v>133</v>
+      </c>
+      <c r="C208" s="63" t="n">
+        <f aca="false">(B208-0.5)/$B$235</f>
+        <v>0.828125</v>
+      </c>
+      <c r="D208" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C208)</f>
-        <v>1.13529914581985</v>
+        <v>0.946781756301045</v>
       </c>
       <c r="E208" s="16" t="n">
-        <v>0.00480000000000001</v>
+        <v>0.00352000000000001</v>
       </c>
       <c r="F208" s="16" t="n">
-        <v>0.00527999999999999</v>
+        <v>0.00192000000000001</v>
       </c>
       <c r="X208" s="16" t="n">
         <v>0.06832</v>
@@ -19394,23 +20294,23 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="59" t="n">
+      <c r="B209" s="64" t="n">
         <f aca="false">$B208+1</f>
-        <v>141</v>
-      </c>
-      <c r="C209" s="58" t="n">
-        <f aca="false">(B209-0.5)/$B$228</f>
-        <v>0.878125</v>
-      </c>
-      <c r="D209" s="58" t="n">
+        <v>134</v>
+      </c>
+      <c r="C209" s="63" t="n">
+        <f aca="false">(B209-0.5)/$B$235</f>
+        <v>0.834375</v>
+      </c>
+      <c r="D209" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C209)</f>
-        <v>1.16566479312306</v>
+        <v>0.971599161193188</v>
       </c>
       <c r="E209" s="16" t="n">
-        <v>0.00504</v>
+        <v>0.00368000000000002</v>
       </c>
       <c r="F209" s="16" t="n">
-        <v>0.00224000000000001</v>
+        <v>0.00192000000000001</v>
       </c>
       <c r="X209" s="16" t="n">
         <v>0.06696</v>
@@ -19420,23 +20320,23 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="59" t="n">
+      <c r="B210" s="64" t="n">
         <f aca="false">$B209+1</f>
-        <v>142</v>
-      </c>
-      <c r="C210" s="58" t="n">
-        <f aca="false">(B210-0.5)/$B$228</f>
-        <v>0.884375</v>
-      </c>
-      <c r="D210" s="58" t="n">
+        <v>135</v>
+      </c>
+      <c r="C210" s="63" t="n">
+        <f aca="false">(B210-0.5)/$B$235</f>
+        <v>0.840625</v>
+      </c>
+      <c r="D210" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C210)</f>
-        <v>1.19714510997237</v>
+        <v>0.997029893615006</v>
       </c>
       <c r="E210" s="16" t="n">
-        <v>0.0052</v>
+        <v>0.00376</v>
       </c>
       <c r="F210" s="16" t="n">
-        <v>0.00208</v>
+        <v>0.00216</v>
       </c>
       <c r="X210" s="16" t="n">
         <v>0.06672</v>
@@ -19446,23 +20346,23 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B211" s="59" t="n">
+      <c r="B211" s="64" t="n">
         <f aca="false">$B210+1</f>
-        <v>143</v>
-      </c>
-      <c r="C211" s="58" t="n">
-        <f aca="false">(B211-0.5)/$B$228</f>
-        <v>0.890625</v>
-      </c>
-      <c r="D211" s="58" t="n">
+        <v>136</v>
+      </c>
+      <c r="C211" s="63" t="n">
+        <f aca="false">(B211-0.5)/$B$235</f>
+        <v>0.846875</v>
+      </c>
+      <c r="D211" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C211)</f>
-        <v>1.22985875921659</v>
+        <v>1.02312235168363</v>
       </c>
       <c r="E211" s="16" t="n">
-        <v>0.00520000000000001</v>
+        <v>0.004</v>
       </c>
       <c r="F211" s="16" t="n">
-        <v>0.0012</v>
+        <v>0.00176000000000001</v>
       </c>
       <c r="X211" s="16" t="n">
         <v>0.0616</v>
@@ -19472,23 +20372,23 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="59" t="n">
+      <c r="B212" s="64" t="n">
         <f aca="false">$B211+1</f>
-        <v>144</v>
-      </c>
-      <c r="C212" s="58" t="n">
-        <f aca="false">(B212-0.5)/$B$228</f>
-        <v>0.896875</v>
-      </c>
-      <c r="D212" s="58" t="n">
+        <v>137</v>
+      </c>
+      <c r="C212" s="63" t="n">
+        <f aca="false">(B212-0.5)/$B$235</f>
+        <v>0.853125</v>
+      </c>
+      <c r="D212" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C212)</f>
-        <v>1.26394435523673</v>
+        <v>1.04993064688034</v>
       </c>
       <c r="E212" s="16" t="n">
-        <v>0.00527999999999999</v>
+        <v>0.00448000000000001</v>
       </c>
       <c r="F212" s="16" t="n">
-        <v>0.00296</v>
+        <v>-0.00272</v>
       </c>
       <c r="X212" s="16" t="n">
         <v>0.05984</v>
@@ -19498,23 +20398,23 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="59" t="n">
+      <c r="B213" s="64" t="n">
         <f aca="false">$B212+1</f>
-        <v>145</v>
-      </c>
-      <c r="C213" s="58" t="n">
-        <f aca="false">(B213-0.5)/$B$228</f>
-        <v>0.903125</v>
-      </c>
-      <c r="D213" s="58" t="n">
+        <v>138</v>
+      </c>
+      <c r="C213" s="63" t="n">
+        <f aca="false">(B213-0.5)/$B$235</f>
+        <v>0.859375</v>
+      </c>
+      <c r="D213" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C213)</f>
-        <v>1.29956529745035</v>
+        <v>1.07751556704028</v>
       </c>
       <c r="E213" s="16" t="n">
-        <v>0.00527999999999999</v>
+        <v>0.00472</v>
       </c>
       <c r="F213" s="16" t="n">
-        <v>0</v>
+        <v>-0.00232</v>
       </c>
       <c r="X213" s="16" t="n">
         <v>0.1012</v>
@@ -19524,23 +20424,23 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="59" t="n">
+      <c r="B214" s="64" t="n">
         <f aca="false">$B213+1</f>
-        <v>146</v>
-      </c>
-      <c r="C214" s="58" t="n">
-        <f aca="false">(B214-0.5)/$B$228</f>
-        <v>0.909375</v>
-      </c>
-      <c r="D214" s="58" t="n">
+        <v>139</v>
+      </c>
+      <c r="C214" s="63" t="n">
+        <f aca="false">(B214-0.5)/$B$235</f>
+        <v>0.865625</v>
+      </c>
+      <c r="D214" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C214)</f>
-        <v>1.3369161761535</v>
+        <v>1.10594575260395</v>
       </c>
       <c r="E214" s="16" t="n">
-        <v>0.00559999999999999</v>
+        <v>0.00472000000000002</v>
       </c>
       <c r="F214" s="16" t="n">
-        <v>7.99999999999829E-005</v>
+        <v>0.00248</v>
       </c>
       <c r="X214" s="16" t="n">
         <v>0.10112</v>
@@ -19550,23 +20450,23 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B215" s="59" t="n">
+      <c r="B215" s="64" t="n">
         <f aca="false">$B214+1</f>
-        <v>147</v>
-      </c>
-      <c r="C215" s="58" t="n">
-        <f aca="false">(B215-0.5)/$B$228</f>
-        <v>0.915625</v>
-      </c>
-      <c r="D215" s="58" t="n">
+        <v>140</v>
+      </c>
+      <c r="C215" s="63" t="n">
+        <f aca="false">(B215-0.5)/$B$235</f>
+        <v>0.871875</v>
+      </c>
+      <c r="D215" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C215)</f>
-        <v>1.37623141165149</v>
+        <v>1.13529914581985</v>
       </c>
       <c r="E215" s="16" t="n">
-        <v>0.00560000000000001</v>
+        <v>0.00480000000000001</v>
       </c>
       <c r="F215" s="16" t="n">
-        <v>0.00200000000000002</v>
+        <v>0.00527999999999999</v>
       </c>
       <c r="X215" s="16" t="n">
         <v>0.0956</v>
@@ -19576,23 +20476,23 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B216" s="59" t="n">
+      <c r="B216" s="64" t="n">
         <f aca="false">$B215+1</f>
-        <v>148</v>
-      </c>
-      <c r="C216" s="58" t="n">
-        <f aca="false">(B216-0.5)/$B$228</f>
-        <v>0.921875</v>
-      </c>
-      <c r="D216" s="58" t="n">
+        <v>141</v>
+      </c>
+      <c r="C216" s="63" t="n">
+        <f aca="false">(B216-0.5)/$B$235</f>
+        <v>0.878125</v>
+      </c>
+      <c r="D216" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C216)</f>
-        <v>1.41779713799627</v>
+        <v>1.16566479312306</v>
       </c>
       <c r="E216" s="16" t="n">
-        <v>0.00560000000000001</v>
+        <v>0.00504</v>
       </c>
       <c r="F216" s="16" t="n">
-        <v>0.00559999999999999</v>
+        <v>0.00224000000000001</v>
       </c>
       <c r="X216" s="16" t="n">
         <v>0.0924</v>
@@ -19602,23 +20502,23 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B217" s="59" t="n">
+      <c r="B217" s="64" t="n">
         <f aca="false">$B216+1</f>
-        <v>149</v>
-      </c>
-      <c r="C217" s="58" t="n">
-        <f aca="false">(B217-0.5)/$B$228</f>
-        <v>0.928125</v>
-      </c>
-      <c r="D217" s="58" t="n">
+        <v>142</v>
+      </c>
+      <c r="C217" s="63" t="n">
+        <f aca="false">(B217-0.5)/$B$235</f>
+        <v>0.884375</v>
+      </c>
+      <c r="D217" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C217)</f>
-        <v>1.46196792364549</v>
+        <v>1.19714510997237</v>
       </c>
       <c r="E217" s="16" t="n">
-        <v>0.00568</v>
+        <v>0.0052</v>
       </c>
       <c r="F217" s="16" t="n">
-        <v>0.00144</v>
+        <v>0.00208</v>
       </c>
       <c r="X217" s="16" t="n">
         <v>0.06816</v>
@@ -19628,23 +20528,23 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B218" s="59" t="n">
+      <c r="B218" s="64" t="n">
         <f aca="false">$B217+1</f>
-        <v>150</v>
-      </c>
-      <c r="C218" s="58" t="n">
-        <f aca="false">(B218-0.5)/$B$228</f>
-        <v>0.934375</v>
-      </c>
-      <c r="D218" s="58" t="n">
+        <v>143</v>
+      </c>
+      <c r="C218" s="63" t="n">
+        <f aca="false">(B218-0.5)/$B$235</f>
+        <v>0.890625</v>
+      </c>
+      <c r="D218" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C218)</f>
-        <v>1.50919091978405</v>
+        <v>1.22985875921659</v>
       </c>
       <c r="E218" s="16" t="n">
-        <v>0.00576</v>
+        <v>0.00520000000000001</v>
       </c>
       <c r="F218" s="16" t="n">
-        <v>0.00144</v>
+        <v>0.0012</v>
       </c>
       <c r="X218" s="16" t="n">
         <v>0.06816</v>
@@ -19654,23 +20554,23 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B219" s="59" t="n">
+      <c r="B219" s="64" t="n">
         <f aca="false">$B218+1</f>
-        <v>151</v>
-      </c>
-      <c r="C219" s="58" t="n">
-        <f aca="false">(B219-0.5)/$B$228</f>
-        <v>0.940625</v>
-      </c>
-      <c r="D219" s="58" t="n">
+        <v>144</v>
+      </c>
+      <c r="C219" s="63" t="n">
+        <f aca="false">(B219-0.5)/$B$235</f>
+        <v>0.896875</v>
+      </c>
+      <c r="D219" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C219)</f>
-        <v>1.56004181507316</v>
+        <v>1.26394435523673</v>
       </c>
       <c r="E219" s="16" t="n">
-        <v>0.00599999999999999</v>
+        <v>0.00527999999999999</v>
       </c>
       <c r="F219" s="16" t="n">
-        <v>0.00144</v>
+        <v>0.00296</v>
       </c>
       <c r="X219" s="16" t="n">
         <v>0.06816</v>
@@ -19680,23 +20580,23 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B220" s="59" t="n">
+      <c r="B220" s="64" t="n">
         <f aca="false">$B219+1</f>
-        <v>152</v>
-      </c>
-      <c r="C220" s="58" t="n">
-        <f aca="false">(B220-0.5)/$B$228</f>
-        <v>0.946875</v>
-      </c>
-      <c r="D220" s="58" t="n">
+        <v>145</v>
+      </c>
+      <c r="C220" s="63" t="n">
+        <f aca="false">(B220-0.5)/$B$235</f>
+        <v>0.903125</v>
+      </c>
+      <c r="D220" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C220)</f>
-        <v>1.61528033615581</v>
+        <v>1.29956529745035</v>
       </c>
       <c r="E220" s="16" t="n">
-        <v>0.00600000000000001</v>
+        <v>0.00527999999999999</v>
       </c>
       <c r="F220" s="16" t="n">
-        <v>0.00152000000000001</v>
+        <v>0</v>
       </c>
       <c r="X220" s="16" t="n">
         <v>0.06808</v>
@@ -19706,23 +20606,23 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B221" s="59" t="n">
+      <c r="B221" s="64" t="n">
         <f aca="false">$B220+1</f>
-        <v>153</v>
-      </c>
-      <c r="C221" s="58" t="n">
-        <f aca="false">(B221-0.5)/$B$228</f>
-        <v>0.953125</v>
-      </c>
-      <c r="D221" s="58" t="n">
+        <v>146</v>
+      </c>
+      <c r="C221" s="63" t="n">
+        <f aca="false">(B221-0.5)/$B$235</f>
+        <v>0.909375</v>
+      </c>
+      <c r="D221" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C221)</f>
-        <v>1.67593972277344</v>
+        <v>1.3369161761535</v>
       </c>
       <c r="E221" s="16" t="n">
-        <v>0.00608</v>
+        <v>0.00559999999999999</v>
       </c>
       <c r="F221" s="16" t="n">
-        <v>0.000399999999999998</v>
+        <v>7.99999999999829E-005</v>
       </c>
       <c r="X221" s="16" t="n">
         <v>0.1008</v>
@@ -19732,23 +20632,23 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="59" t="n">
+      <c r="B222" s="64" t="n">
         <f aca="false">$B221+1</f>
-        <v>154</v>
-      </c>
-      <c r="C222" s="58" t="n">
-        <f aca="false">(B222-0.5)/$B$228</f>
-        <v>0.959375</v>
-      </c>
-      <c r="D222" s="58" t="n">
+        <v>147</v>
+      </c>
+      <c r="C222" s="63" t="n">
+        <f aca="false">(B222-0.5)/$B$235</f>
+        <v>0.915625</v>
+      </c>
+      <c r="D222" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C222)</f>
-        <v>1.74347888187728</v>
+        <v>1.37623141165149</v>
       </c>
       <c r="E222" s="16" t="n">
-        <v>0.00688</v>
+        <v>0.00560000000000001</v>
       </c>
       <c r="F222" s="16" t="n">
-        <v>0.000399999999999998</v>
+        <v>0.00200000000000002</v>
       </c>
       <c r="X222" s="16" t="n">
         <v>0.1008</v>
@@ -19758,23 +20658,23 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B223" s="59" t="n">
+      <c r="B223" s="64" t="n">
         <f aca="false">$B222+1</f>
-        <v>155</v>
-      </c>
-      <c r="C223" s="58" t="n">
-        <f aca="false">(B223-0.5)/$B$228</f>
-        <v>0.965625</v>
-      </c>
-      <c r="D223" s="58" t="n">
+        <v>148</v>
+      </c>
+      <c r="C223" s="63" t="n">
+        <f aca="false">(B223-0.5)/$B$235</f>
+        <v>0.921875</v>
+      </c>
+      <c r="D223" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C223)</f>
-        <v>1.82005913441812</v>
+        <v>1.41779713799627</v>
       </c>
       <c r="E223" s="16" t="n">
-        <v>0.00800000000000001</v>
+        <v>0.00560000000000001</v>
       </c>
       <c r="F223" s="16" t="n">
-        <v>0.00600000000000001</v>
+        <v>0.00559999999999999</v>
       </c>
       <c r="X223" s="16" t="n">
         <v>0.0884</v>
@@ -19784,23 +20684,23 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="59" t="n">
+      <c r="B224" s="64" t="n">
         <f aca="false">$B223+1</f>
-        <v>156</v>
-      </c>
-      <c r="C224" s="58" t="n">
-        <f aca="false">(B224-0.5)/$B$228</f>
-        <v>0.971875</v>
-      </c>
-      <c r="D224" s="58" t="n">
+        <v>149</v>
+      </c>
+      <c r="C224" s="63" t="n">
+        <f aca="false">(B224-0.5)/$B$235</f>
+        <v>0.928125</v>
+      </c>
+      <c r="D224" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C224)</f>
-        <v>1.90909374120198</v>
+        <v>1.46196792364549</v>
       </c>
       <c r="E224" s="16" t="n">
-        <v>0.00879999999999999</v>
+        <v>0.00568</v>
       </c>
       <c r="F224" s="16" t="n">
-        <v>0.00599999999999999</v>
+        <v>0.00144</v>
       </c>
       <c r="X224" s="16" t="n">
         <v>0.0828</v>
@@ -19810,20 +20710,20 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B225" s="59" t="n">
+      <c r="B225" s="64" t="n">
         <f aca="false">$B224+1</f>
-        <v>157</v>
-      </c>
-      <c r="C225" s="58" t="n">
-        <f aca="false">(B225-0.5)/$B$228</f>
-        <v>0.978125</v>
-      </c>
-      <c r="D225" s="58" t="n">
+        <v>150</v>
+      </c>
+      <c r="C225" s="63" t="n">
+        <f aca="false">(B225-0.5)/$B$235</f>
+        <v>0.934375</v>
+      </c>
+      <c r="D225" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C225)</f>
-        <v>2.01647815742854</v>
+        <v>1.50919091978405</v>
       </c>
       <c r="E225" s="16" t="n">
-        <v>0.00952</v>
+        <v>0.00576</v>
       </c>
       <c r="F225" s="16" t="n">
         <v>0.00144</v>
@@ -19836,20 +20736,20 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B226" s="59" t="n">
+      <c r="B226" s="64" t="n">
         <f aca="false">$B225+1</f>
-        <v>158</v>
-      </c>
-      <c r="C226" s="58" t="n">
-        <f aca="false">(B226-0.5)/$B$228</f>
-        <v>0.984375</v>
-      </c>
-      <c r="D226" s="58" t="n">
+        <v>151</v>
+      </c>
+      <c r="C226" s="63" t="n">
+        <f aca="false">(B226-0.5)/$B$235</f>
+        <v>0.940625</v>
+      </c>
+      <c r="D226" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C226)</f>
-        <v>2.15387469406146</v>
+        <v>1.56004181507316</v>
       </c>
       <c r="E226" s="16" t="n">
-        <v>0.01088</v>
+        <v>0.00599999999999999</v>
       </c>
       <c r="F226" s="16" t="n">
         <v>0.00144</v>
@@ -19862,20 +20762,20 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B227" s="59" t="n">
+      <c r="B227" s="64" t="n">
         <f aca="false">$B226+1</f>
-        <v>159</v>
-      </c>
-      <c r="C227" s="58" t="n">
-        <f aca="false">(B227-0.5)/$B$228</f>
-        <v>0.990625</v>
-      </c>
-      <c r="D227" s="58" t="n">
+        <v>152</v>
+      </c>
+      <c r="C227" s="63" t="n">
+        <f aca="false">(B227-0.5)/$B$235</f>
+        <v>0.946875</v>
+      </c>
+      <c r="D227" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C227)</f>
-        <v>2.35046442310908</v>
+        <v>1.61528033615581</v>
       </c>
       <c r="E227" s="16" t="n">
-        <v>0.01088</v>
+        <v>0.00600000000000001</v>
       </c>
       <c r="F227" s="16" t="n">
         <v>0.00152000000000001</v>
@@ -19888,23 +20788,23 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B228" s="62" t="n">
+      <c r="B228" s="64" t="n">
         <f aca="false">$B227+1</f>
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C228" s="63" t="n">
-        <f aca="false">(B228-0.5)/$B$228</f>
-        <v>0.996875</v>
+        <f aca="false">(B228-0.5)/$B$235</f>
+        <v>0.953125</v>
       </c>
       <c r="D228" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C228)</f>
-        <v>2.73436878653318</v>
-      </c>
-      <c r="E228" s="39" t="n">
-        <v>0.01168</v>
-      </c>
-      <c r="F228" s="39" t="n">
-        <v>0.00232</v>
+        <v>1.67593972277344</v>
+      </c>
+      <c r="E228" s="16" t="n">
+        <v>0.00608</v>
+      </c>
+      <c r="F228" s="16" t="n">
+        <v>0.000399999999999998</v>
       </c>
       <c r="X228" s="39" t="n">
         <v>0.06728</v>
@@ -19913,9 +20813,151 @@
         <v>0.00232</v>
       </c>
     </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B229" s="64" t="n">
+        <f aca="false">$B228+1</f>
+        <v>154</v>
+      </c>
+      <c r="C229" s="63" t="n">
+        <f aca="false">(B229-0.5)/$B$235</f>
+        <v>0.959375</v>
+      </c>
+      <c r="D229" s="63" t="n">
+        <f aca="false">_xlfn.NORM.S.INV(C229)</f>
+        <v>1.74347888187728</v>
+      </c>
+      <c r="E229" s="16" t="n">
+        <v>0.00688</v>
+      </c>
+      <c r="F229" s="16" t="n">
+        <v>0.000399999999999998</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B230" s="64" t="n">
+        <f aca="false">$B229+1</f>
+        <v>155</v>
+      </c>
+      <c r="C230" s="63" t="n">
+        <f aca="false">(B230-0.5)/$B$235</f>
+        <v>0.965625</v>
+      </c>
+      <c r="D230" s="63" t="n">
+        <f aca="false">_xlfn.NORM.S.INV(C230)</f>
+        <v>1.82005913441812</v>
+      </c>
+      <c r="E230" s="16" t="n">
+        <v>0.00800000000000001</v>
+      </c>
+      <c r="F230" s="16" t="n">
+        <v>0.00600000000000001</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B231" s="64" t="n">
+        <f aca="false">$B230+1</f>
+        <v>156</v>
+      </c>
+      <c r="C231" s="63" t="n">
+        <f aca="false">(B231-0.5)/$B$235</f>
+        <v>0.971875</v>
+      </c>
+      <c r="D231" s="63" t="n">
+        <f aca="false">_xlfn.NORM.S.INV(C231)</f>
+        <v>1.90909374120198</v>
+      </c>
+      <c r="E231" s="16" t="n">
+        <v>0.00879999999999999</v>
+      </c>
+      <c r="F231" s="16" t="n">
+        <v>0.00599999999999999</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B232" s="64" t="n">
+        <f aca="false">$B231+1</f>
+        <v>157</v>
+      </c>
+      <c r="C232" s="63" t="n">
+        <f aca="false">(B232-0.5)/$B$235</f>
+        <v>0.978125</v>
+      </c>
+      <c r="D232" s="63" t="n">
+        <f aca="false">_xlfn.NORM.S.INV(C232)</f>
+        <v>2.01647815742854</v>
+      </c>
+      <c r="E232" s="16" t="n">
+        <v>0.00952</v>
+      </c>
+      <c r="F232" s="16" t="n">
+        <v>0.00144</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B233" s="64" t="n">
+        <f aca="false">$B232+1</f>
+        <v>158</v>
+      </c>
+      <c r="C233" s="63" t="n">
+        <f aca="false">(B233-0.5)/$B$235</f>
+        <v>0.984375</v>
+      </c>
+      <c r="D233" s="63" t="n">
+        <f aca="false">_xlfn.NORM.S.INV(C233)</f>
+        <v>2.15387469406146</v>
+      </c>
+      <c r="E233" s="16" t="n">
+        <v>0.01088</v>
+      </c>
+      <c r="F233" s="16" t="n">
+        <v>0.00144</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B234" s="64" t="n">
+        <f aca="false">$B233+1</f>
+        <v>159</v>
+      </c>
+      <c r="C234" s="63" t="n">
+        <f aca="false">(B234-0.5)/$B$235</f>
+        <v>0.990625</v>
+      </c>
+      <c r="D234" s="63" t="n">
+        <f aca="false">_xlfn.NORM.S.INV(C234)</f>
+        <v>2.35046442310908</v>
+      </c>
+      <c r="E234" s="16" t="n">
+        <v>0.01088</v>
+      </c>
+      <c r="F234" s="16" t="n">
+        <v>0.00152000000000001</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B235" s="67" t="n">
+        <f aca="false">$B234+1</f>
+        <v>160</v>
+      </c>
+      <c r="C235" s="68" t="n">
+        <f aca="false">(B235-0.5)/$B$235</f>
+        <v>0.996875</v>
+      </c>
+      <c r="D235" s="68" t="n">
+        <f aca="false">_xlfn.NORM.S.INV(C235)</f>
+        <v>2.73436878653318</v>
+      </c>
+      <c r="E235" s="39" t="n">
+        <v>0.01168</v>
+      </c>
+      <c r="F235" s="39" t="n">
+        <v>0.00232</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="AM18:AQ18"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A68:B68"/>
   </mergeCells>
   <conditionalFormatting sqref="C19:G51 C57:AF57 C56:C57 D56:AF56 AQ56">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
